--- a/verish_enhanced.xlsx
+++ b/verish_enhanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/Desktop/Vibers/Projects/2025/Verish/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E19155F-8BAF-3D4C-81B9-D5B0BE2B7DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CB2F17-FF05-E847-AE77-FDABA6D68460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{A3E41E42-9EF4-3848-910D-43E5DAF16124}"/>
   </bookViews>
@@ -7725,9 +7725,9 @@
   </sheetPr>
   <dimension ref="A1:AB267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F268" sqref="F268:F317"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S268" sqref="S268:T321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="J3" s="8">
         <f t="shared" ref="J3:J66" si="1">IFERROR((S3+T3+U3)/V3,"")</f>
-        <v>4.4166096491228073</v>
+        <v>0.1402938596491228</v>
       </c>
       <c r="K3" s="7">
         <f t="shared" ref="K3:K66" si="2">IFERROR(U3/V3,"")</f>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="N3" s="4">
         <f t="shared" ref="N3:N66" si="5">IFERROR((S3+U3)/Q3,"")</f>
-        <v>62.881875000000001</v>
+        <v>1.944375</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O66" si="6">IFERROR(100/(L3+1),"")</f>
@@ -7935,7 +7935,7 @@
         <v>967</v>
       </c>
       <c r="S3">
-        <v>100600000</v>
+        <v>3100000</v>
       </c>
       <c r="T3" s="3">
         <v>87700</v>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="J4" s="8">
         <f t="shared" si="1"/>
-        <v>3054.757925072046</v>
+        <v>7.2910662824207495E-2</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" si="2"/>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="N4" s="4">
         <f t="shared" si="5"/>
-        <v>31.021381328650865</v>
+        <v>7.2870939420544337E-4</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="6"/>
@@ -8027,7 +8027,7 @@
         <v>2273</v>
       </c>
       <c r="S4">
-        <v>10600000</v>
+        <v>243</v>
       </c>
       <c r="T4" s="3">
         <v>4</v>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="J5" s="8">
         <f t="shared" si="1"/>
-        <v>577.27304213969603</v>
+        <v>3.2711179526649987E-2</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="2"/>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="N5" s="4">
         <f t="shared" si="5"/>
-        <v>111.52676579925651</v>
+        <v>5.6505576208178438E-3</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="6"/>
@@ -8119,7 +8119,7 @@
         <v>1356</v>
       </c>
       <c r="S5">
-        <v>3000000</v>
+        <v>82</v>
       </c>
       <c r="T5" s="3">
         <v>18</v>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="J6" s="8">
         <f t="shared" si="1"/>
-        <v>42.129223946784926</v>
+        <v>1.5521064301552106E-3</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="2"/>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="N6" s="4">
         <f t="shared" si="5"/>
-        <v>35.714511278195488</v>
+        <v>1.0150375939849624E-3</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="6"/>
@@ -8211,7 +8211,7 @@
         <v>5296</v>
       </c>
       <c r="S6">
-        <v>1900000</v>
+        <v>42</v>
       </c>
       <c r="T6" s="3">
         <v>16</v>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="J7" s="8">
         <f t="shared" si="1"/>
-        <v>931.37892156862745</v>
+        <v>1.8627450980392157E-2</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="2"/>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="N7" s="4">
         <f t="shared" si="5"/>
-        <v>180.95342857142856</v>
+        <v>3.4285714285714284E-3</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="6"/>
@@ -8303,7 +8303,7 @@
         <v>1145</v>
       </c>
       <c r="S7">
-        <v>1900000</v>
+        <v>25</v>
       </c>
       <c r="T7" s="3">
         <v>2</v>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="J8" s="8">
         <f t="shared" si="1"/>
-        <v>9067.4850306748467</v>
+        <v>2.2331288343558284E-2</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="2"/>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="N8" s="4">
         <f t="shared" si="5"/>
-        <v>52.785715357142855</v>
+        <v>1.2892857142857142E-4</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="6"/>
@@ -8395,7 +8395,7 @@
         <v>1129</v>
       </c>
       <c r="S8">
-        <v>147800000</v>
+        <v>358</v>
       </c>
       <c r="T8" s="3">
         <v>3</v>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="1"/>
-        <v>615.12209621993122</v>
+        <v>7.4123711340206191E-2</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="2"/>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="N9" s="4">
         <f t="shared" si="5"/>
-        <v>46.578246161852718</v>
+        <v>5.5269320843091335E-3</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="6"/>
@@ -8487,7 +8487,7 @@
         <v>1646</v>
       </c>
       <c r="S9">
-        <v>17900000</v>
+        <v>2104</v>
       </c>
       <c r="T9" s="3">
         <v>33</v>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="J10" s="8">
         <f t="shared" si="1"/>
-        <v>216.03613511390415</v>
+        <v>1.9049489395129616E-2</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="2"/>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="N10" s="4">
         <f t="shared" si="5"/>
-        <v>287.36886102403344</v>
+        <v>2.3249738766980145E-2</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="6"/>
@@ -8579,7 +8579,7 @@
         <v>977</v>
       </c>
       <c r="S10">
-        <v>1100000</v>
+        <v>41</v>
       </c>
       <c r="T10" s="3">
         <v>8</v>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="J11" s="8">
         <f t="shared" si="1"/>
-        <v>1.0667931251309999</v>
+        <v>6.8937329700272483E-3</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="2"/>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="N11" s="4">
         <f t="shared" si="5"/>
-        <v>86.444292549555712</v>
+        <v>3.3151059466848938E-2</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="6"/>
@@ -8671,7 +8671,7 @@
         <v>296</v>
       </c>
       <c r="S11">
-        <v>505700</v>
+        <v>22</v>
       </c>
       <c r="T11" s="3">
         <v>3095</v>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="J12" s="8">
         <f t="shared" si="1"/>
-        <v>281.83809090909091</v>
+        <v>2.931818181818182E-2</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="2"/>
@@ -8747,7 +8747,7 @@
       </c>
       <c r="N12" s="4">
         <f t="shared" si="5"/>
-        <v>44.067085998578534</v>
+        <v>3.1698649609097369E-3</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="6"/>
@@ -8763,7 +8763,7 @@
         <v>1999</v>
       </c>
       <c r="S12">
-        <v>6200000</v>
+        <v>207</v>
       </c>
       <c r="T12" s="3">
         <v>199</v>
@@ -8823,7 +8823,7 @@
       </c>
       <c r="J13" s="8">
         <f t="shared" si="1"/>
-        <v>244.92537098400805</v>
+        <v>1.9737789943812131E-2</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="2"/>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="N13" s="4">
         <f t="shared" si="5"/>
-        <v>109.67870967741935</v>
+        <v>8.3870967741935479E-3</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="6"/>
@@ -8855,7 +8855,7 @@
         <v>1153</v>
       </c>
       <c r="S13">
-        <v>1700000</v>
+        <v>110</v>
       </c>
       <c r="T13" s="3">
         <v>7</v>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="J14" s="8">
         <f t="shared" si="1"/>
-        <v>17500.42142857143</v>
+        <v>1.2589285714285714</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="2"/>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="N14" s="4">
         <f t="shared" si="5"/>
-        <v>164.70653781512604</v>
+        <v>8.5378151260504208E-3</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="6"/>
@@ -8947,7 +8947,7 @@
         <v>489</v>
       </c>
       <c r="S14">
-        <v>9800000</v>
+        <v>469</v>
       </c>
       <c r="T14" s="3">
         <v>197</v>
@@ -9007,7 +9007,7 @@
       </c>
       <c r="J15" s="8">
         <f t="shared" si="1"/>
-        <v>361.09904255319151</v>
+        <v>7.1236702127659576E-2</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="2"/>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="N15" s="4">
         <f t="shared" si="5"/>
-        <v>96.090125641479389</v>
+        <v>3.4471774907096089E-3</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="6"/>
@@ -9039,7 +9039,7 @@
         <v>857</v>
       </c>
       <c r="S15">
-        <v>54300000</v>
+        <v>1418</v>
       </c>
       <c r="T15" s="3">
         <v>8766</v>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="J16" s="8">
         <f t="shared" si="1"/>
-        <v>387.51136843443976</v>
+        <v>1.1821187841790665E-2</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="2"/>
@@ -9115,7 +9115,7 @@
       </c>
       <c r="N16" s="4">
         <f t="shared" si="5"/>
-        <v>84.638894722222219</v>
+        <v>2.5352777777777778E-3</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="6"/>
@@ -9131,7 +9131,7 @@
         <v>2239</v>
       </c>
       <c r="S16">
-        <v>304700000</v>
+        <v>9106</v>
       </c>
       <c r="T16" s="3">
         <v>168</v>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="J17" s="8">
         <f t="shared" si="1"/>
-        <v>2632.8126227678572</v>
+        <v>1.6329352678571429</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="2"/>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="N17" s="4">
         <f t="shared" si="5"/>
-        <v>138.7647111764706</v>
+        <v>8.6064117647058819E-2</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="6"/>
@@ -9223,7 +9223,7 @@
         <v>520</v>
       </c>
       <c r="S17">
-        <v>235900000</v>
+        <v>146300</v>
       </c>
       <c r="T17" s="3">
         <v>2</v>
@@ -9283,7 +9283,7 @@
       </c>
       <c r="J18" s="8">
         <f t="shared" si="1"/>
-        <v>130.08349083333334</v>
+        <v>0.34324083333333333</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="2"/>
@@ -9299,7 +9299,7 @@
       </c>
       <c r="N18" s="4">
         <f t="shared" si="5"/>
-        <v>67.869579999999999</v>
+        <v>0.17901478260869566</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="6"/>
@@ -9315,7 +9315,7 @@
         <v>1622</v>
       </c>
       <c r="S18">
-        <v>156100000</v>
+        <v>411700</v>
       </c>
       <c r="T18" s="3">
         <v>155</v>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="J19" s="8">
         <f t="shared" si="1"/>
-        <v>64.273360790774305</v>
+        <v>3.7281713344316313E-2</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="2"/>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="N19" s="4">
         <f t="shared" si="5"/>
-        <v>16.752959621993128</v>
+        <v>4.1194158075601372E-3</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="6"/>
@@ -9407,7 +9407,7 @@
         <v>697</v>
       </c>
       <c r="S19">
-        <v>3900000</v>
+        <v>870</v>
       </c>
       <c r="T19" s="3">
         <v>1304</v>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="J20" s="8">
         <f t="shared" si="1"/>
-        <v>26453.142284569138</v>
+        <v>15.517034068136272</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="2"/>
@@ -9483,7 +9483,7 @@
       </c>
       <c r="N20" s="4">
         <f t="shared" si="5"/>
-        <v>87.620406571523404</v>
+        <v>5.0708596083637571E-2</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="6"/>
@@ -9499,7 +9499,7 @@
         <v>1279</v>
       </c>
       <c r="S20">
-        <v>52800000</v>
+        <v>30500</v>
       </c>
       <c r="T20" s="3">
         <v>415</v>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="J21" s="8">
         <f t="shared" si="1"/>
-        <v>2.5221560975609756</v>
+        <v>3.5404878048780487E-2</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="2"/>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="N21" s="4">
         <f t="shared" si="5"/>
-        <v>139.34953577280174</v>
+        <v>0.1403604587657018</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="6"/>
@@ -9591,7 +9591,7 @@
         <v>1388</v>
       </c>
       <c r="S21">
-        <v>255000</v>
+        <v>108</v>
       </c>
       <c r="T21" s="3">
         <v>3372</v>
@@ -9651,7 +9651,7 @@
       </c>
       <c r="J22" s="8">
         <f t="shared" si="1"/>
-        <v>13.090420008442381</v>
+        <v>1.4115660616293794E-2</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="2"/>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="N22" s="4">
         <f t="shared" si="5"/>
-        <v>44.068919687277898</v>
+        <v>3.5138592750533049E-2</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="6"/>
@@ -9683,7 +9683,7 @@
         <v>6468</v>
       </c>
       <c r="S22">
-        <v>6200000</v>
+        <v>4447</v>
       </c>
       <c r="T22" s="3">
         <v>1744</v>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="J23" s="8">
         <f t="shared" si="1"/>
-        <v>67.422623309466985</v>
+        <v>0.13702267303102625</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="2"/>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="N23" s="4">
         <f t="shared" si="5"/>
-        <v>106.6373954073608</v>
+        <v>0.21650833595470273</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="6"/>
@@ -9775,7 +9775,7 @@
         <v>199</v>
       </c>
       <c r="S23">
-        <v>33900000</v>
+        <v>68800</v>
       </c>
       <c r="T23" s="3">
         <v>67</v>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="J24" s="8">
         <f t="shared" si="1"/>
-        <v>10942.286030624264</v>
+        <v>0.29663133097762073</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="2"/>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="N24" s="4">
         <f t="shared" si="5"/>
-        <v>78.067229999999995</v>
+        <v>2.1123529411764706E-3</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="6"/>
@@ -9867,7 +9867,7 @@
         <v>977</v>
       </c>
       <c r="S24">
-        <v>929000000</v>
+        <v>25100</v>
       </c>
       <c r="T24" s="3">
         <v>47</v>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="J25" s="8">
         <f t="shared" si="1"/>
-        <v>1.5717064846416382</v>
+        <v>5.4232081911262796E-2</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="2"/>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="N25" s="4">
         <f t="shared" si="5"/>
-        <v>48.299300699300701</v>
+        <v>1.6608391608391608</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="6"/>
@@ -9959,7 +9959,7 @@
         <v>751</v>
       </c>
       <c r="S25">
-        <v>138100</v>
+        <v>4714</v>
       </c>
       <c r="T25" s="3">
         <v>17</v>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="J26" s="8">
         <f t="shared" si="1"/>
-        <v>2007.5915180265654</v>
+        <v>9.278425047438331</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="2"/>
@@ -10035,7 +10035,7 @@
       </c>
       <c r="N26" s="4">
         <f t="shared" si="5"/>
-        <v>28.59459972972973</v>
+        <v>0.13214027027027028</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="6"/>
@@ -10051,7 +10051,7 @@
         <v>112</v>
       </c>
       <c r="S26">
-        <v>105800000</v>
+        <v>488900</v>
       </c>
       <c r="T26" s="3">
         <v>54</v>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="J27" s="8">
         <f t="shared" si="1"/>
-        <v>2.0152198484848487</v>
+        <v>1.3924242424242424E-4</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="2"/>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="N27" s="4">
         <f t="shared" si="5"/>
-        <v>51.590756400310319</v>
+        <v>2.1916214119472458E-3</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="6"/>
@@ -10143,7 +10143,7 @@
         <v>237</v>
       </c>
       <c r="S27">
-        <v>13300000</v>
+        <v>468</v>
       </c>
       <c r="T27" s="3">
         <v>354</v>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="J28" s="8">
         <f t="shared" si="1"/>
-        <v>9076.5379081632655</v>
+        <v>0.53790816326530611</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="2"/>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="N28" s="4">
         <f t="shared" si="5"/>
-        <v>77.347836956521732</v>
+        <v>4.5326086956521735E-3</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="6"/>
@@ -10235,7 +10235,7 @@
         <v>1131</v>
       </c>
       <c r="S28">
-        <v>177900000</v>
+        <v>10400</v>
       </c>
       <c r="T28" s="3">
         <v>118</v>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="J29" s="8">
         <f t="shared" si="1"/>
-        <v>5.0900145428103984</v>
+        <v>2.1268860207235049E-4</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="2"/>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="N29" s="4">
         <f t="shared" si="5"/>
-        <v>132.07594339622642</v>
+        <v>5.1886792452830186E-3</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="6"/>
@@ -10327,7 +10327,7 @@
         <v>665</v>
       </c>
       <c r="S29">
-        <v>2800000</v>
+        <v>100</v>
       </c>
       <c r="T29" s="3">
         <v>7</v>
@@ -10387,7 +10387,7 @@
       </c>
       <c r="J30" s="8">
         <f t="shared" si="1"/>
-        <v>15.376115702479339</v>
+        <v>0.29975206611570249</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="2"/>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="N30" s="4">
         <f t="shared" si="5"/>
-        <v>125.0100806451613</v>
+        <v>2.413306451612903</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="6"/>
@@ -10419,7 +10419,7 @@
         <v>1661</v>
       </c>
       <c r="S30">
-        <v>186000</v>
+        <v>3576</v>
       </c>
       <c r="T30" s="3">
         <v>36</v>
@@ -10479,7 +10479,7 @@
       </c>
       <c r="J31" s="8">
         <f t="shared" si="1"/>
-        <v>1649.2542350746269</v>
+        <v>1.5228917910447761</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="2"/>
@@ -10495,7 +10495,7 @@
       </c>
       <c r="N31" s="4">
         <f t="shared" si="5"/>
-        <v>10.04545659090909</v>
+        <v>9.274772727272727E-3</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="6"/>
@@ -10511,7 +10511,7 @@
         <v>5080</v>
       </c>
       <c r="S31">
-        <v>176800000</v>
+        <v>163200</v>
       </c>
       <c r="T31" s="3">
         <v>18</v>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="J32" s="8">
         <f t="shared" si="1"/>
-        <v>28.074850877192983</v>
+        <v>1.075438596491228E-2</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="2"/>
@@ -10587,7 +10587,7 @@
       </c>
       <c r="N32" s="4">
         <f t="shared" si="5"/>
-        <v>26.781062761506277</v>
+        <v>8.6192468619246867E-3</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="6"/>
@@ -10603,7 +10603,7 @@
         <v>1313</v>
       </c>
       <c r="S32">
-        <v>3200000</v>
+        <v>693</v>
       </c>
       <c r="T32" s="3">
         <v>196</v>
@@ -10663,7 +10663,7 @@
       </c>
       <c r="J33" s="8">
         <f t="shared" si="1"/>
-        <v>4.5999753997539976</v>
+        <v>0.5556949569495695</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="2"/>
@@ -10679,7 +10679,7 @@
       </c>
       <c r="N33" s="4">
         <f t="shared" si="5"/>
-        <v>23.427074829931971</v>
+        <v>1.0597278911564625</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="6"/>
@@ -10695,7 +10695,7 @@
         <v>1917</v>
       </c>
       <c r="S33">
-        <v>343900</v>
+        <v>15100</v>
       </c>
       <c r="T33" s="3">
         <v>29600</v>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="J34" s="8">
         <f t="shared" si="1"/>
-        <v>0.24494050000000001</v>
+        <v>1.10905E-2</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="2"/>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="N34" s="4">
         <f t="shared" si="5"/>
-        <v>116.33698499642772</v>
+        <v>4.9533222195760898</v>
       </c>
       <c r="O34" s="4">
         <f t="shared" si="6"/>
@@ -10787,7 +10787,7 @@
         <v>3447</v>
       </c>
       <c r="S34">
-        <v>488300</v>
+        <v>20600</v>
       </c>
       <c r="T34" s="3">
         <v>1382</v>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="J35" s="8">
         <f t="shared" si="1"/>
-        <v>15454.572609208974</v>
+        <v>6.4380165289256199</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="2"/>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="N35" s="4">
         <f t="shared" si="5"/>
-        <v>59.50001727272727</v>
+        <v>2.469909090909091E-2</v>
       </c>
       <c r="O35" s="4">
         <f t="shared" si="6"/>
@@ -10879,7 +10879,7 @@
         <v>1653</v>
       </c>
       <c r="S35">
-        <v>130900000</v>
+        <v>54300</v>
       </c>
       <c r="T35" s="3">
         <v>192</v>
@@ -10939,7 +10939,7 @@
       </c>
       <c r="J36" s="8">
         <f t="shared" si="1"/>
-        <v>9.381081428571429</v>
+        <v>2.7333333333333333E-4</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="2"/>
@@ -10955,7 +10955,7 @@
       </c>
       <c r="N36" s="4">
         <f t="shared" si="5"/>
-        <v>152.00671296296295</v>
+        <v>2.8780864197530862E-3</v>
       </c>
       <c r="O36" s="4">
         <f t="shared" si="6"/>
@@ -10971,7 +10971,7 @@
         <v>5438</v>
       </c>
       <c r="S36">
-        <v>19700000</v>
+        <v>303</v>
       </c>
       <c r="T36" s="3">
         <v>201</v>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="J37" s="8">
         <f t="shared" si="1"/>
-        <v>18.8819244734931</v>
+        <v>1.5032679738562092E-3</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="2"/>
@@ -11047,7 +11047,7 @@
       </c>
       <c r="N37" s="4">
         <f t="shared" si="5"/>
-        <v>27.513492063492063</v>
+        <v>2.0211640211640213E-3</v>
       </c>
       <c r="O37" s="4">
         <f t="shared" si="6"/>
@@ -11063,7 +11063,7 @@
         <v>155</v>
       </c>
       <c r="S37">
-        <v>2600000</v>
+        <v>166</v>
       </c>
       <c r="T37" s="3">
         <v>16</v>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="J38" s="8">
         <f t="shared" si="1"/>
-        <v>40.004777777777775</v>
+        <v>5.9777777777777777E-2</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="2"/>
@@ -11139,7 +11139,7 @@
       </c>
       <c r="N38" s="4">
         <f t="shared" si="5"/>
-        <v>14.778653530377669</v>
+        <v>2.0648604269293925E-2</v>
       </c>
       <c r="O38" s="4">
         <f t="shared" si="6"/>
@@ -11155,7 +11155,7 @@
         <v>2652</v>
       </c>
       <c r="S38">
-        <v>1800000</v>
+        <v>2475</v>
       </c>
       <c r="T38" s="3">
         <v>175</v>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="J39" s="8">
         <f t="shared" si="1"/>
-        <v>11.777791666666667</v>
+        <v>7.4555555555555551E-4</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="2"/>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="N39" s="4">
         <f t="shared" si="5"/>
-        <v>53.146171972925544</v>
+        <v>3.3216344948608675E-3</v>
       </c>
       <c r="O39" s="4">
         <f t="shared" si="6"/>
@@ -11247,7 +11247,7 @@
         <v>343</v>
       </c>
       <c r="S39">
-        <v>21200000</v>
+        <v>1317</v>
       </c>
       <c r="T39" s="3">
         <v>17</v>
@@ -11307,7 +11307,7 @@
       </c>
       <c r="J40" s="8">
         <f t="shared" si="1"/>
-        <v>582.6478099173554</v>
+        <v>0.21933884297520662</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="2"/>
@@ -11323,7 +11323,7 @@
       </c>
       <c r="N40" s="4">
         <f t="shared" si="5"/>
-        <v>132.02262172284645</v>
+        <v>4.912921348314607E-2</v>
       </c>
       <c r="O40" s="4">
         <f t="shared" si="6"/>
@@ -11339,7 +11339,7 @@
         <v>682</v>
       </c>
       <c r="S40">
-        <v>14100000</v>
+        <v>5231</v>
       </c>
       <c r="T40" s="3">
         <v>61</v>
@@ -11399,7 +11399,7 @@
       </c>
       <c r="J41" s="8">
         <f t="shared" si="1"/>
-        <v>94.581272123893811</v>
+        <v>7.8650442477876115E-3</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="2"/>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="N41" s="4">
         <f t="shared" si="5"/>
-        <v>58.521611909650922</v>
+        <v>3.9117043121149895E-3</v>
       </c>
       <c r="O41" s="4">
         <f t="shared" si="6"/>
@@ -11431,7 +11431,7 @@
         <v>410</v>
       </c>
       <c r="S41">
-        <v>17100000</v>
+        <v>1128</v>
       </c>
       <c r="T41" s="3">
         <v>279</v>
@@ -11491,7 +11491,7 @@
       </c>
       <c r="J42" s="8">
         <f t="shared" si="1"/>
-        <v>1160.0543712172159</v>
+        <v>4.342972427706792E-2</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="2"/>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="N42" s="4">
         <f t="shared" si="5"/>
-        <v>123.21430071428571</v>
+        <v>4.5671428571428573E-3</v>
       </c>
       <c r="O42" s="4">
         <f t="shared" si="6"/>
@@ -11523,7 +11523,7 @@
         <v>323</v>
       </c>
       <c r="S42">
-        <v>172500000</v>
+        <v>6373</v>
       </c>
       <c r="T42" s="3">
         <v>64</v>
@@ -11583,7 +11583,7 @@
       </c>
       <c r="J43" s="8">
         <f t="shared" si="1"/>
-        <v>1698.9309677419355</v>
+        <v>0.44559139784946239</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="2"/>
@@ -11599,7 +11599,7 @@
       </c>
       <c r="N43" s="4">
         <f t="shared" si="5"/>
-        <v>74.458152686145141</v>
+        <v>1.9349670122525919E-2</v>
       </c>
       <c r="O43" s="4">
         <f t="shared" si="6"/>
@@ -11615,7 +11615,7 @@
         <v>633</v>
       </c>
       <c r="S43">
-        <v>7900000</v>
+        <v>2043</v>
       </c>
       <c r="T43" s="3">
         <v>19</v>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="J44" s="8">
         <f t="shared" si="1"/>
-        <v>3800.6613362541075</v>
+        <v>0.35235487404162102</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="2"/>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="N44" s="4">
         <f t="shared" si="5"/>
-        <v>234.30120864280892</v>
+        <v>2.1525995948683322E-2</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="6"/>
@@ -11707,7 +11707,7 @@
         <v>856</v>
       </c>
       <c r="S44">
-        <v>34700000</v>
+        <v>3179</v>
       </c>
       <c r="T44" s="3">
         <v>29</v>
@@ -11767,7 +11767,7 @@
       </c>
       <c r="J45" s="8">
         <f t="shared" si="1"/>
-        <v>1052.1959999999999</v>
+        <v>1.3786086956521739</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="2"/>
@@ -11783,7 +11783,7 @@
       </c>
       <c r="N45" s="4">
         <f t="shared" si="5"/>
-        <v>146.66752727272728</v>
+        <v>0.18995151515151515</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="6"/>
@@ -11799,7 +11799,7 @@
         <v>1695</v>
       </c>
       <c r="S45">
-        <v>12100000</v>
+        <v>15600</v>
       </c>
       <c r="T45" s="3">
         <v>183</v>
@@ -11859,7 +11859,7 @@
       </c>
       <c r="J46" s="8">
         <f t="shared" si="1"/>
-        <v>6.0601676429004243</v>
+        <v>3.1125025247424761E-3</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="2"/>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="N46" s="4">
         <f t="shared" si="5"/>
-        <v>35.253349001175089</v>
+        <v>1.4242068155111634E-2</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="6"/>
@@ -11891,7 +11891,7 @@
         <v>703</v>
       </c>
       <c r="S46">
-        <v>3000000</v>
+        <v>1152</v>
       </c>
       <c r="T46" s="3">
         <v>329</v>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="J47" s="8">
         <f t="shared" si="1"/>
-        <v>1.1111227777777777</v>
+        <v>2.0166666666666667E-4</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="2"/>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="N47" s="4">
         <f t="shared" si="5"/>
-        <v>49.382839506172843</v>
+        <v>8.5679012345679009E-3</v>
       </c>
       <c r="O47" s="4">
         <f t="shared" si="6"/>
@@ -11983,7 +11983,7 @@
         <v>1372</v>
       </c>
       <c r="S47">
-        <v>2000000</v>
+        <v>342</v>
       </c>
       <c r="T47" s="3">
         <v>16</v>
@@ -12043,7 +12043,7 @@
       </c>
       <c r="J48" s="8">
         <f t="shared" si="1"/>
-        <v>19.015581395348836</v>
+        <v>9.5290697674418598E-2</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="2"/>
@@ -12059,7 +12059,7 @@
       </c>
       <c r="N48" s="4">
         <f t="shared" si="5"/>
-        <v>3.3335881753312946</v>
+        <v>1.6269113149847095E-2</v>
       </c>
       <c r="O48" s="4">
         <f t="shared" si="6"/>
@@ -12075,7 +12075,7 @@
         <v>1107</v>
       </c>
       <c r="S48">
-        <v>327000</v>
+        <v>1571</v>
       </c>
       <c r="T48" s="3">
         <v>43</v>
@@ -12135,7 +12135,7 @@
       </c>
       <c r="J49" s="8">
         <f t="shared" si="1"/>
-        <v>6.5432812499999997</v>
+        <v>0.35968749999999999</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="2"/>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="N49" s="4">
         <f t="shared" si="5"/>
-        <v>44.96153846153846</v>
+        <v>2.3848843464228078</v>
       </c>
       <c r="O49" s="4">
         <f t="shared" si="6"/>
@@ -12167,7 +12167,7 @@
         <v>785</v>
       </c>
       <c r="S49">
-        <v>167100</v>
+        <v>8800</v>
       </c>
       <c r="T49" s="3">
         <v>341</v>
@@ -12227,7 +12227,7 @@
       </c>
       <c r="J50" s="8">
         <f t="shared" si="1"/>
-        <v>4.7612090680100758</v>
+        <v>0.14105793450881612</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="2"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="N50" s="4">
         <f t="shared" si="5"/>
-        <v>25.888888888888889</v>
+        <v>0.41388888888888886</v>
       </c>
       <c r="O50" s="4">
         <f t="shared" si="6"/>
@@ -12259,7 +12259,7 @@
         <v>1063</v>
       </c>
       <c r="S50">
-        <v>930600</v>
+        <v>13500</v>
       </c>
       <c r="T50" s="3">
         <v>13100</v>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="J51" s="8">
         <f t="shared" si="1"/>
-        <v>110.74760147601476</v>
+        <v>8.509225092250923E-2</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="2"/>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="N51" s="4">
         <f t="shared" si="5"/>
-        <v>65.64768052516412</v>
+        <v>2.5054704595185995E-2</v>
       </c>
       <c r="O51" s="4">
         <f t="shared" si="6"/>
@@ -12351,7 +12351,7 @@
         <v>334</v>
       </c>
       <c r="S51">
-        <v>3000000</v>
+        <v>1046</v>
       </c>
       <c r="T51" s="3">
         <v>1161</v>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="J52" s="8">
         <f t="shared" si="1"/>
-        <v>1.5626500000000001</v>
+        <v>3.0437500000000001E-4</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="2"/>
@@ -12427,7 +12427,7 @@
       </c>
       <c r="N52" s="4">
         <f t="shared" si="5"/>
-        <v>47.801682600382406</v>
+        <v>5.2581261950286808E-3</v>
       </c>
       <c r="O52" s="4">
         <f t="shared" si="6"/>
@@ -12443,7 +12443,7 @@
         <v>1044</v>
       </c>
       <c r="S52">
-        <v>2500000</v>
+        <v>247</v>
       </c>
       <c r="T52" s="3">
         <v>212</v>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="J53" s="8">
         <f t="shared" si="1"/>
-        <v>322.42170475602222</v>
+        <v>0.16413835701050031</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="2"/>
@@ -12519,7 +12519,7 @@
       </c>
       <c r="N53" s="4">
         <f t="shared" si="5"/>
-        <v>68.539939600840341</v>
+        <v>3.4818802521008406E-2</v>
       </c>
       <c r="O53" s="4">
         <f t="shared" si="6"/>
@@ -12535,7 +12535,7 @@
         <v>1481</v>
       </c>
       <c r="S53">
-        <v>52200000</v>
+        <v>26500</v>
       </c>
       <c r="T53" s="3">
         <v>56</v>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="J54" s="8">
         <f t="shared" si="1"/>
-        <v>10684.347173383825</v>
+        <v>5.6347038139031644</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="2"/>
@@ -12611,7 +12611,7 @@
       </c>
       <c r="N54" s="4">
         <f t="shared" si="5"/>
-        <v>88.684366861248321</v>
+        <v>4.67377638078132E-2</v>
       </c>
       <c r="O54" s="4">
         <f t="shared" si="6"/>
@@ -12627,7 +12627,7 @@
         <v>200</v>
       </c>
       <c r="S54">
-        <v>79000000</v>
+        <v>41600</v>
       </c>
       <c r="T54" s="3">
         <v>29</v>
@@ -12687,7 +12687,7 @@
       </c>
       <c r="J55" s="8">
         <f t="shared" si="1"/>
-        <v>281.85803168935507</v>
+        <v>0.6042936844454363</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="2"/>
@@ -12703,7 +12703,7 @@
       </c>
       <c r="N55" s="4">
         <f t="shared" si="5"/>
-        <v>84.200076666666661</v>
+        <v>0.18021000000000001</v>
       </c>
       <c r="O55" s="4">
         <f t="shared" si="6"/>
@@ -12719,7 +12719,7 @@
         <v>2985</v>
       </c>
       <c r="S55">
-        <v>126300000</v>
+        <v>270200</v>
       </c>
       <c r="T55" s="3">
         <v>469</v>
@@ -12779,7 +12779,7 @@
       </c>
       <c r="J56" s="8">
         <f t="shared" si="1"/>
-        <v>0.14364305555555557</v>
+        <v>3.211111111111111E-4</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="2"/>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="N56" s="4">
         <f t="shared" si="5"/>
-        <v>20.6844</v>
+        <v>4.6039999999999998E-2</v>
       </c>
       <c r="O56" s="4">
         <f t="shared" si="6"/>
@@ -12811,7 +12811,7 @@
         <v>2265</v>
       </c>
       <c r="S56">
-        <v>517100</v>
+        <v>1141</v>
       </c>
       <c r="T56" s="3">
         <v>5</v>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="J57" s="8">
         <f t="shared" si="1"/>
-        <v>1.7121677861187936</v>
+        <v>4.8925325958119319E-2</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="2"/>
@@ -12887,7 +12887,7 @@
       </c>
       <c r="N57" s="4">
         <f t="shared" si="5"/>
-        <v>50.782304687500002</v>
+        <v>1.4502734374999999</v>
       </c>
       <c r="O57" s="4">
         <f t="shared" si="6"/>
@@ -12903,7 +12903,7 @@
         <v>83</v>
       </c>
       <c r="S57">
-        <v>1300000</v>
+        <v>37100</v>
       </c>
       <c r="T57" s="3">
         <v>22</v>
@@ -12963,7 +12963,7 @@
       </c>
       <c r="J58" s="8">
         <f t="shared" si="1"/>
-        <v>3.8008775595486835E-2</v>
+        <v>1.5712494776431258E-3</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="2"/>
@@ -12979,7 +12979,7 @@
       </c>
       <c r="N58" s="4">
         <f t="shared" si="5"/>
-        <v>28.604200323101779</v>
+        <v>0.43134087237479807</v>
       </c>
       <c r="O58" s="4">
         <f t="shared" si="6"/>
@@ -12995,7 +12995,7 @@
         <v>577</v>
       </c>
       <c r="S58">
-        <v>17600</v>
+        <v>161</v>
       </c>
       <c r="T58" s="3">
         <v>485</v>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="J59" s="8">
         <f t="shared" si="1"/>
-        <v>2.4207647058823528E-2</v>
+        <v>2.2764705882352943E-3</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="2"/>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="N59" s="4">
         <f t="shared" si="5"/>
-        <v>2.6802631578947369</v>
+        <v>0.22743421052631579</v>
       </c>
       <c r="O59" s="4">
         <f t="shared" si="6"/>
@@ -13087,7 +13087,7 @@
         <v>208</v>
       </c>
       <c r="S59">
-        <v>40700</v>
+        <v>3417</v>
       </c>
       <c r="T59" s="3">
         <v>413</v>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="J60" s="8">
         <f t="shared" si="1"/>
-        <v>182.60907246376811</v>
+        <v>4.2699420289855077</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="2"/>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="N60" s="4">
         <f t="shared" si="5"/>
-        <v>15.017902264600716</v>
+        <v>0.35115613825983316</v>
       </c>
       <c r="O60" s="4">
         <f t="shared" si="6"/>
@@ -13179,7 +13179,7 @@
         <v>703</v>
       </c>
       <c r="S60">
-        <v>6300000</v>
+        <v>147300</v>
       </c>
       <c r="T60" s="3">
         <v>3</v>
@@ -13239,7 +13239,7 @@
       </c>
       <c r="J61" s="8">
         <f t="shared" si="1"/>
-        <v>72.886705539358601</v>
+        <v>1.9620991253644315E-2</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="2"/>
@@ -13255,7 +13255,7 @@
       </c>
       <c r="N61" s="4">
         <f t="shared" si="5"/>
-        <v>24.90046812749004</v>
+        <v>6.6334661354581674E-3</v>
       </c>
       <c r="O61" s="4">
         <f t="shared" si="6"/>
@@ -13271,7 +13271,7 @@
         <v>454</v>
       </c>
       <c r="S61">
-        <v>2500000</v>
+        <v>659</v>
       </c>
       <c r="T61" s="3">
         <v>7</v>
@@ -13331,7 +13331,7 @@
       </c>
       <c r="J62" s="8">
         <f t="shared" si="1"/>
-        <v>618.60967741935485</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="2"/>
@@ -13347,7 +13347,7 @@
       </c>
       <c r="N62" s="4">
         <f t="shared" si="5"/>
-        <v>304.23268112109997</v>
+        <v>0.38709677419354838</v>
       </c>
       <c r="O62" s="4">
         <f t="shared" si="6"/>
@@ -13363,7 +13363,7 @@
         <v>997</v>
       </c>
       <c r="S62">
-        <v>575300</v>
+        <v>728</v>
       </c>
       <c r="T62" s="3">
         <v>3</v>
@@ -13423,7 +13423,7 @@
       </c>
       <c r="J63" s="8">
         <f t="shared" si="1"/>
-        <v>106.56782786885246</v>
+        <v>3.2131147540983604E-2</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="2"/>
@@ -13439,7 +13439,7 @@
       </c>
       <c r="N63" s="4">
         <f t="shared" si="5"/>
-        <v>27.513841269841269</v>
+        <v>6.2116402116402115E-3</v>
       </c>
       <c r="O63" s="4">
         <f t="shared" si="6"/>
@@ -13455,7 +13455,7 @@
         <v>140</v>
       </c>
       <c r="S63">
-        <v>2600000</v>
+        <v>529</v>
       </c>
       <c r="T63" s="3">
         <v>197</v>
@@ -13515,7 +13515,7 @@
       </c>
       <c r="J64" s="8">
         <f t="shared" si="1"/>
-        <v>9359.5202416918437</v>
+        <v>3.1093655589123865</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="2"/>
@@ -13531,7 +13531,7 @@
       </c>
       <c r="N64" s="4">
         <f t="shared" si="5"/>
-        <v>68.844451555555551</v>
+        <v>2.2851555555555556E-2</v>
       </c>
       <c r="O64" s="4">
         <f t="shared" si="6"/>
@@ -13547,7 +13547,7 @@
         <v>742</v>
       </c>
       <c r="S64">
-        <v>309800000</v>
+        <v>102800</v>
       </c>
       <c r="T64" s="3">
         <v>88</v>
@@ -13607,7 +13607,7 @@
       </c>
       <c r="J65" s="8">
         <f t="shared" si="1"/>
-        <v>328.14656250000002</v>
+        <v>2.5572916666666667E-2</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="2"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="N65" s="4">
         <f t="shared" si="5"/>
-        <v>43.659979209979213</v>
+        <v>1.4691614691614691E-3</v>
       </c>
       <c r="O65" s="4">
         <f t="shared" si="6"/>
@@ -13639,7 +13639,7 @@
         <v>1247</v>
       </c>
       <c r="S65">
-        <v>6300000</v>
+        <v>77</v>
       </c>
       <c r="T65" s="3">
         <v>279</v>
@@ -13699,7 +13699,7 @@
       </c>
       <c r="J66" s="8">
         <f t="shared" si="1"/>
-        <v>1.3816063803064558</v>
+        <v>4.6684250188394876E-3</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="2"/>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="N66" s="4">
         <f t="shared" si="5"/>
-        <v>22.358272357723578</v>
+        <v>7.5386178861788625E-2</v>
       </c>
       <c r="O66" s="4">
         <f t="shared" si="6"/>
@@ -13731,7 +13731,7 @@
         <v>615</v>
       </c>
       <c r="S66">
-        <v>1100000</v>
+        <v>3682</v>
       </c>
       <c r="T66" s="3">
         <v>8</v>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="J67" s="8">
         <f t="shared" ref="J67:J130" si="8">IFERROR((S67+T67+U67)/V67,"")</f>
-        <v>16.516528066528068</v>
+        <v>3.3970893970893971E-2</v>
       </c>
       <c r="K67" s="7">
         <f t="shared" ref="K67:K130" si="9">IFERROR(U67/V67,"")</f>
@@ -13807,7 +13807,7 @@
       </c>
       <c r="N67" s="4">
         <f t="shared" ref="N67:N130" si="12">IFERROR((S67+U67)/Q67,"")</f>
-        <v>58.354999999999997</v>
+        <v>6.0073529411764706E-2</v>
       </c>
       <c r="O67" s="4">
         <f t="shared" ref="O67:O130" si="13">IFERROR(100/(L67+1),"")</f>
@@ -13823,7 +13823,7 @@
         <v>683</v>
       </c>
       <c r="S67">
-        <v>793400</v>
+        <v>589</v>
       </c>
       <c r="T67" s="3">
         <v>817</v>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="J68" s="8">
         <f t="shared" si="8"/>
-        <v>282.49399725544009</v>
+        <v>0.42087433836502647</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" si="9"/>
@@ -13899,7 +13899,7 @@
       </c>
       <c r="N68" s="4">
         <f t="shared" si="12"/>
-        <v>60.041690833333334</v>
+        <v>8.9399166666666668E-2</v>
       </c>
       <c r="O68" s="4">
         <f t="shared" si="13"/>
@@ -13915,7 +13915,7 @@
         <v>110</v>
       </c>
       <c r="S68">
-        <v>144100000</v>
+        <v>214500</v>
       </c>
       <c r="T68" s="3">
         <v>130</v>
@@ -13975,7 +13975,7 @@
       </c>
       <c r="J69" s="8">
         <f t="shared" si="8"/>
-        <v>62.624739548401521</v>
+        <v>6.6054102392130568E-2</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="9"/>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="N69" s="4">
         <f t="shared" si="12"/>
-        <v>49.95067070995362</v>
+        <v>3.5401355690331787E-2</v>
       </c>
       <c r="O69" s="4">
         <f t="shared" si="13"/>
@@ -14007,7 +14007,7 @@
         <v>1546</v>
       </c>
       <c r="S69">
-        <v>28000000</v>
+        <v>17500</v>
       </c>
       <c r="T69" s="3">
         <v>9700</v>
@@ -14067,7 +14067,7 @@
       </c>
       <c r="J70" s="8">
         <f t="shared" si="8"/>
-        <v>157.02743801652892</v>
+        <v>0.22595041322314049</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="9"/>
@@ -14083,7 +14083,7 @@
       </c>
       <c r="N70" s="4">
         <f t="shared" si="12"/>
-        <v>46.285310596833128</v>
+        <v>6.6114494518879421E-2</v>
       </c>
       <c r="O70" s="4">
         <f t="shared" si="13"/>
@@ -14099,7 +14099,7 @@
         <v>72</v>
       </c>
       <c r="S70">
-        <v>3800000</v>
+        <v>5404</v>
       </c>
       <c r="T70" s="3">
         <v>40</v>
@@ -14159,7 +14159,7 @@
       </c>
       <c r="J71" s="8">
         <f t="shared" si="8"/>
-        <v>73.619794040315512</v>
+        <v>4.0823838737949168E-2</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="9"/>
@@ -14175,7 +14175,7 @@
       </c>
       <c r="N71" s="4">
         <f t="shared" si="12"/>
-        <v>71.096220905628442</v>
+        <v>3.9424460431654679E-2</v>
       </c>
       <c r="O71" s="4">
         <f t="shared" si="13"/>
@@ -14191,7 +14191,7 @@
         <v>154</v>
       </c>
       <c r="S71">
-        <v>16800000</v>
+        <v>9279</v>
       </c>
       <c r="T71" s="3">
         <v>0</v>
@@ -14251,7 +14251,7 @@
       </c>
       <c r="J72" s="8">
         <f t="shared" si="8"/>
-        <v>661.43553811659194</v>
+        <v>3.063340807174888</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="9"/>
@@ -14267,7 +14267,7 @@
       </c>
       <c r="N72" s="4">
         <f t="shared" si="12"/>
-        <v>302.2543032786885</v>
+        <v>1.3997950819672131</v>
       </c>
       <c r="O72" s="4">
         <f t="shared" si="13"/>
@@ -14283,7 +14283,7 @@
         <v>225</v>
       </c>
       <c r="S72">
-        <v>29500000</v>
+        <v>136600</v>
       </c>
       <c r="T72" s="3">
         <v>5</v>
@@ -14343,7 +14343,7 @@
       </c>
       <c r="J73" s="8">
         <f t="shared" si="8"/>
-        <v>5.0322040072859746</v>
+        <v>0.30861566484517305</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="9"/>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="N73" s="4">
         <f t="shared" si="12"/>
-        <v>25.079179954441912</v>
+        <v>1.4504783599088837</v>
       </c>
       <c r="O73" s="4">
         <f t="shared" si="13"/>
@@ -14375,7 +14375,7 @@
         <v>807</v>
       </c>
       <c r="S73">
-        <v>1100000</v>
+        <v>62700</v>
       </c>
       <c r="T73" s="3">
         <v>4096</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="J74" s="8">
         <f t="shared" si="8"/>
-        <v>6.8851936619718312</v>
+        <v>0.15492957746478872</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="9"/>
@@ -14451,7 +14451,7 @@
       </c>
       <c r="N74" s="4">
         <f t="shared" si="12"/>
-        <v>7.3918903591682419</v>
+        <v>0.16544423440453687</v>
       </c>
       <c r="O74" s="4">
         <f t="shared" si="13"/>
@@ -14467,7 +14467,7 @@
         <v>121</v>
       </c>
       <c r="S74">
-        <v>391000</v>
+        <v>8721</v>
       </c>
       <c r="T74" s="3">
         <v>48</v>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="J75" s="8">
         <f t="shared" si="8"/>
-        <v>10.561256599788807</v>
+        <v>1.9535374868004224E-3</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="9"/>
@@ -14543,7 +14543,7 @@
       </c>
       <c r="N75" s="4">
         <f t="shared" si="12"/>
-        <v>102.95706784721507</v>
+        <v>5.765468959126943E-3</v>
       </c>
       <c r="O75" s="4">
         <f t="shared" si="13"/>
@@ -14559,7 +14559,7 @@
         <v>1557</v>
       </c>
       <c r="S75">
-        <v>1000000</v>
+        <v>34</v>
       </c>
       <c r="T75" s="3">
         <v>129</v>
@@ -14619,7 +14619,7 @@
       </c>
       <c r="J76" s="8">
         <f t="shared" si="8"/>
-        <v>217.3750325</v>
+        <v>0.24659500000000001</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="9"/>
@@ -14635,7 +14635,7 @@
       </c>
       <c r="N76" s="4">
         <f t="shared" si="12"/>
-        <v>151.21740217391303</v>
+        <v>0.17153260869565218</v>
       </c>
       <c r="O76" s="4">
         <f t="shared" si="13"/>
@@ -14651,7 +14651,7 @@
         <v>592</v>
       </c>
       <c r="S76">
-        <v>347800000</v>
+        <v>394500</v>
       </c>
       <c r="T76" s="3">
         <v>27</v>
@@ -14711,7 +14711,7 @@
       </c>
       <c r="J77" s="8">
         <f t="shared" si="8"/>
-        <v>1080.8750269541779</v>
+        <v>1.8345956873315363</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="9"/>
@@ -14727,7 +14727,7 @@
       </c>
       <c r="N77" s="4">
         <f t="shared" si="12"/>
-        <v>53.466739333333337</v>
+        <v>9.0205999999999995E-2</v>
       </c>
       <c r="O77" s="4">
         <f t="shared" si="13"/>
@@ -14743,7 +14743,7 @@
         <v>1267</v>
       </c>
       <c r="S77">
-        <v>80200000</v>
+        <v>135200</v>
       </c>
       <c r="T77" s="3">
         <v>818</v>
@@ -14803,7 +14803,7 @@
       </c>
       <c r="J78" s="8">
         <f t="shared" si="8"/>
-        <v>702.61639344262301</v>
+        <v>0.25526932084309134</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="9"/>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="N78" s="4">
         <f t="shared" si="12"/>
-        <v>133.92991071428571</v>
+        <v>4.2321428571428572E-2</v>
       </c>
       <c r="O78" s="4">
         <f t="shared" si="13"/>
@@ -14835,7 +14835,7 @@
         <v>1839</v>
       </c>
       <c r="S78">
-        <v>1500000</v>
+        <v>459</v>
       </c>
       <c r="T78" s="3">
         <v>71</v>
@@ -14895,7 +14895,7 @@
       </c>
       <c r="J79" s="8">
         <f t="shared" si="8"/>
-        <v>188.58879999999999</v>
+        <v>3.2973714285714286</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="9"/>
@@ -14911,7 +14911,7 @@
       </c>
       <c r="N79" s="4">
         <f t="shared" si="12"/>
-        <v>41.986882951653946</v>
+        <v>0.73243002544529268</v>
       </c>
       <c r="O79" s="4">
         <f t="shared" si="13"/>
@@ -14927,7 +14927,7 @@
         <v>486</v>
       </c>
       <c r="S79">
-        <v>3300000</v>
+        <v>57400</v>
       </c>
       <c r="T79" s="3">
         <v>135</v>
@@ -14987,7 +14987,7 @@
       </c>
       <c r="J80" s="8">
         <f t="shared" si="8"/>
-        <v>166.67826923076922</v>
+        <v>0.27655982905982907</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="9"/>
@@ -15003,7 +15003,7 @@
       </c>
       <c r="N80" s="4">
         <f t="shared" si="12"/>
-        <v>54.319359331476321</v>
+        <v>8.8161559888579391E-2</v>
       </c>
       <c r="O80" s="4">
         <f t="shared" si="13"/>
@@ -15019,7 +15019,7 @@
         <v>92</v>
       </c>
       <c r="S80">
-        <v>7800000</v>
+        <v>12400</v>
       </c>
       <c r="T80" s="3">
         <v>283</v>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="J81" s="8">
         <f t="shared" si="8"/>
-        <v>448.5347794117647</v>
+        <v>1.1891911764705883</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="9"/>
@@ -15095,7 +15095,7 @@
       </c>
       <c r="N81" s="4">
         <f t="shared" si="12"/>
-        <v>146.63473557692308</v>
+        <v>0.38713942307692306</v>
       </c>
       <c r="O81" s="4">
         <f t="shared" si="13"/>
@@ -15111,7 +15111,7 @@
         <v>331</v>
       </c>
       <c r="S81">
-        <v>6100000</v>
+        <v>16100</v>
       </c>
       <c r="T81" s="3">
         <v>68</v>
@@ -15171,7 +15171,7 @@
       </c>
       <c r="J82" s="8">
         <f t="shared" si="8"/>
-        <v>12.943571428571429</v>
+        <v>0.23521428571428571</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="9"/>
@@ -15187,7 +15187,7 @@
       </c>
       <c r="N82" s="4">
         <f t="shared" si="12"/>
-        <v>8.8575247524752481</v>
+        <v>4.9752475247524755E-2</v>
       </c>
       <c r="O82" s="4">
         <f t="shared" si="13"/>
@@ -15203,7 +15203,7 @@
         <v>2910</v>
       </c>
       <c r="S82">
-        <v>178800</v>
+        <v>883</v>
       </c>
       <c r="T82" s="3">
         <v>2288</v>
@@ -15263,7 +15263,7 @@
       </c>
       <c r="J83" s="8">
         <f t="shared" si="8"/>
-        <v>1555.5575555555556</v>
+        <v>8.3777777777777784E-2</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="9"/>
@@ -15279,7 +15279,7 @@
       </c>
       <c r="N83" s="4">
         <f t="shared" si="12"/>
-        <v>64.955202598206</v>
+        <v>3.4673677698731828E-3</v>
       </c>
       <c r="O83" s="4">
         <f t="shared" si="13"/>
@@ -15295,7 +15295,7 @@
         <v>233</v>
       </c>
       <c r="S83">
-        <v>21000000</v>
+        <v>1104</v>
       </c>
       <c r="T83" s="3">
         <v>10</v>
@@ -15355,7 +15355,7 @@
       </c>
       <c r="J84" s="8">
         <f t="shared" si="8"/>
-        <v>201.51526402640263</v>
+        <v>0.13861386138613863</v>
       </c>
       <c r="K84" s="7">
         <f t="shared" si="9"/>
@@ -15371,7 +15371,7 @@
       </c>
       <c r="N84" s="4">
         <f t="shared" si="12"/>
-        <v>116.29816623005478</v>
+        <v>4.7392236246725408E-2</v>
       </c>
       <c r="O84" s="4">
         <f t="shared" si="13"/>
@@ -15387,7 +15387,7 @@
         <v>260</v>
       </c>
       <c r="S84">
-        <v>488300</v>
+        <v>163</v>
       </c>
       <c r="T84" s="3">
         <v>137</v>
@@ -15447,7 +15447,7 @@
       </c>
       <c r="J85" s="8">
         <f t="shared" si="8"/>
-        <v>15.929230769230768</v>
+        <v>2.2661122661122662E-3</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="9"/>
@@ -15463,7 +15463,7 @@
       </c>
       <c r="N85" s="4">
         <f t="shared" si="12"/>
-        <v>585.71865443425077</v>
+        <v>2.5229357798165139E-2</v>
       </c>
       <c r="O85" s="4">
         <f t="shared" si="13"/>
@@ -15479,7 +15479,7 @@
         <v>737</v>
       </c>
       <c r="S85">
-        <v>766100</v>
+        <v>13</v>
       </c>
       <c r="T85" s="3">
         <v>76</v>
@@ -15539,7 +15539,7 @@
       </c>
       <c r="J86" s="8">
         <f t="shared" si="8"/>
-        <v>51.329736842105262</v>
+        <v>4.1893859649122804</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="9"/>
@@ -15555,7 +15555,7 @@
       </c>
       <c r="N86" s="4">
         <f t="shared" si="12"/>
-        <v>40.531319444444442</v>
+        <v>3.211875</v>
       </c>
       <c r="O86" s="4">
         <f t="shared" si="13"/>
@@ -15571,7 +15571,7 @@
         <v>848</v>
       </c>
       <c r="S86">
-        <v>583500</v>
+        <v>46100</v>
       </c>
       <c r="T86" s="3">
         <v>1508</v>
@@ -15631,7 +15631,7 @@
       </c>
       <c r="J87" s="8">
         <f t="shared" si="8"/>
-        <v>63.02185356811863</v>
+        <v>2.2326227988878591E-2</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="9"/>
@@ -15647,7 +15647,7 @@
       </c>
       <c r="N87" s="4">
         <f t="shared" si="12"/>
-        <v>46.543552361396301</v>
+        <v>1.618069815195072E-2</v>
       </c>
       <c r="O87" s="4">
         <f t="shared" si="13"/>
@@ -15663,7 +15663,7 @@
         <v>1549</v>
       </c>
       <c r="S87">
-        <v>6800000</v>
+        <v>2351</v>
       </c>
       <c r="T87" s="3">
         <v>45</v>
@@ -15723,7 +15723,7 @@
       </c>
       <c r="J88" s="8">
         <f t="shared" si="8"/>
-        <v>0.21390807799442896</v>
+        <v>1.4729805013927576E-2</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="9"/>
@@ -15739,7 +15739,7 @@
       </c>
       <c r="N88" s="4">
         <f t="shared" si="12"/>
-        <v>107.96600566572238</v>
+        <v>6.6841359773371103</v>
       </c>
       <c r="O88" s="4">
         <f t="shared" si="13"/>
@@ -15755,7 +15755,7 @@
         <v>1066</v>
       </c>
       <c r="S88">
-        <v>76200</v>
+        <v>4695</v>
       </c>
       <c r="T88" s="3">
         <v>569</v>
@@ -15815,7 +15815,7 @@
       </c>
       <c r="J89" s="8">
         <f t="shared" si="8"/>
-        <v>0.10751728813559322</v>
+        <v>1.7451977401129943E-4</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="9"/>
@@ -15831,7 +15831,7 @@
       </c>
       <c r="N89" s="4">
         <f t="shared" si="12"/>
-        <v>180.96714285714285</v>
+        <v>1.7904761904761906E-2</v>
       </c>
       <c r="O89" s="4">
         <f t="shared" si="13"/>
@@ -15847,7 +15847,7 @@
         <v>967</v>
       </c>
       <c r="S89">
-        <v>1900000</v>
+        <v>33</v>
       </c>
       <c r="T89" s="3">
         <v>2901</v>
@@ -15907,7 +15907,7 @@
       </c>
       <c r="J90" s="8">
         <f t="shared" si="8"/>
-        <v>952.49497624703088</v>
+        <v>1.3845249406175772</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="9"/>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="N90" s="4">
         <f t="shared" si="12"/>
-        <v>53.466695999999999</v>
+        <v>7.7696000000000001E-2</v>
       </c>
       <c r="O90" s="4">
         <f t="shared" si="13"/>
@@ -15939,7 +15939,7 @@
         <v>1386</v>
       </c>
       <c r="S90">
-        <v>80200000</v>
+        <v>116500</v>
       </c>
       <c r="T90" s="3">
         <v>33</v>
@@ -15999,7 +15999,7 @@
       </c>
       <c r="J91" s="8">
         <f t="shared" si="8"/>
-        <v>448.78544325629525</v>
+        <v>2.7899275612280094</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="9"/>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="N91" s="4">
         <f t="shared" si="12"/>
-        <v>43.7726936026936</v>
+        <v>0.23932659932659933</v>
       </c>
       <c r="O91" s="4">
         <f t="shared" si="13"/>
@@ -16031,7 +16031,7 @@
         <v>824</v>
       </c>
       <c r="S91">
-        <v>1300000</v>
+        <v>7059</v>
       </c>
       <c r="T91" s="3">
         <v>980</v>
@@ -16091,7 +16091,7 @@
       </c>
       <c r="J92" s="8">
         <f t="shared" si="8"/>
-        <v>539.17087557603691</v>
+        <v>0.22539170506912443</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="9"/>
@@ -16107,7 +16107,7 @@
       </c>
       <c r="N92" s="4">
         <f t="shared" si="12"/>
-        <v>22.482713297463491</v>
+        <v>9.3908531898539583E-3</v>
       </c>
       <c r="O92" s="4">
         <f t="shared" si="13"/>
@@ -16123,7 +16123,7 @@
         <v>204</v>
       </c>
       <c r="S92">
-        <v>11700000</v>
+        <v>4883</v>
       </c>
       <c r="T92" s="3">
         <v>4</v>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="J93" s="8">
         <f t="shared" si="8"/>
-        <v>4.7131131187652926</v>
+        <v>0.14544889892715979</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="9"/>
@@ -16199,7 +16199,7 @@
       </c>
       <c r="N93" s="4">
         <f t="shared" si="12"/>
-        <v>30.943032178217823</v>
+        <v>0.90837871287128713</v>
       </c>
       <c r="O93" s="4">
         <f t="shared" si="13"/>
@@ -16215,7 +16215,7 @@
         <v>820</v>
       </c>
       <c r="S93">
-        <v>2500000</v>
+        <v>73200</v>
       </c>
       <c r="T93" s="3">
         <v>3880</v>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="J94" s="8">
         <f t="shared" si="8"/>
-        <v>1.4826315789473684E-3</v>
+        <v>1.4210526315789473E-5</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="9"/>
@@ -16291,7 +16291,7 @@
       </c>
       <c r="N94" s="4">
         <f t="shared" si="12"/>
-        <v>8.2852941176470587</v>
+        <v>7.9411764705882348E-2</v>
       </c>
       <c r="O94" s="4">
         <f t="shared" si="13"/>
@@ -16307,7 +16307,7 @@
         <v>161</v>
       </c>
       <c r="S94">
-        <v>2814</v>
+        <v>24</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -16367,7 +16367,7 @@
       </c>
       <c r="J95" s="8">
         <f t="shared" si="8"/>
-        <v>19.223173977328734</v>
+        <v>6.6939379004435681E-2</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="9"/>
@@ -16383,7 +16383,7 @@
       </c>
       <c r="N95" s="4">
         <f t="shared" si="12"/>
-        <v>16.752800687285223</v>
+        <v>5.6924398625429556E-2</v>
       </c>
       <c r="O95" s="4">
         <f t="shared" si="13"/>
@@ -16399,7 +16399,7 @@
         <v>211</v>
       </c>
       <c r="S95">
-        <v>3900000</v>
+        <v>13200</v>
       </c>
       <c r="T95" s="3">
         <v>330</v>
@@ -16459,7 +16459,7 @@
       </c>
       <c r="J96" s="8">
         <f t="shared" si="8"/>
-        <v>669.88519305019304</v>
+        <v>0.46820463320463318</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="9"/>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="N96" s="4">
         <f t="shared" si="12"/>
-        <v>234.3014652261985</v>
+        <v>0.16372045914922351</v>
       </c>
       <c r="O96" s="4">
         <f t="shared" si="13"/>
@@ -16491,7 +16491,7 @@
         <v>2675</v>
       </c>
       <c r="S96">
-        <v>34700000</v>
+        <v>24200</v>
       </c>
       <c r="T96" s="3">
         <v>6</v>
@@ -16551,7 +16551,7 @@
       </c>
       <c r="J97" s="8">
         <f t="shared" si="8"/>
-        <v>9.095238095238095E-4</v>
+        <v>6.5476190476190479E-5</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="9"/>
@@ -16567,7 +16567,7 @@
       </c>
       <c r="N97" s="4">
         <f t="shared" si="12"/>
-        <v>2.3639774859287055</v>
+        <v>0.14696685428392744</v>
       </c>
       <c r="O97" s="4">
         <f t="shared" si="13"/>
@@ -16583,7 +16583,7 @@
         <v>73</v>
       </c>
       <c r="S97">
-        <v>3776</v>
+        <v>231</v>
       </c>
       <c r="T97" s="3">
         <v>40</v>
@@ -16643,7 +16643,7 @@
       </c>
       <c r="J98" s="8">
         <f t="shared" si="8"/>
-        <v>3.0118972602739724</v>
+        <v>4.0154109589041094E-2</v>
       </c>
       <c r="K98" s="7">
         <f t="shared" si="9"/>
@@ -16659,7 +16659,7 @@
       </c>
       <c r="N98" s="4">
         <f t="shared" si="12"/>
-        <v>21.758746867167918</v>
+        <v>1.0651629072681704E-2</v>
       </c>
       <c r="O98" s="4">
         <f t="shared" si="13"/>
@@ -16675,7 +16675,7 @@
         <v>861</v>
       </c>
       <c r="S98">
-        <v>867900</v>
+        <v>151</v>
       </c>
       <c r="T98" s="3">
         <v>11300</v>
@@ -16735,7 +16735,7 @@
       </c>
       <c r="J99" s="8">
         <f t="shared" si="8"/>
-        <v>130.45086449999999</v>
+        <v>1.8664500000000001E-2</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="9"/>
@@ -16751,7 +16751,7 @@
       </c>
       <c r="N99" s="4">
         <f t="shared" si="12"/>
-        <v>124.23836476190476</v>
+        <v>1.7221904761904761E-2</v>
       </c>
       <c r="O99" s="4">
         <f t="shared" si="13"/>
@@ -16767,7 +16767,7 @@
         <v>1084</v>
       </c>
       <c r="S99">
-        <v>260900000</v>
+        <v>35600</v>
       </c>
       <c r="T99" s="3">
         <v>1163</v>
@@ -16827,7 +16827,7 @@
       </c>
       <c r="J100" s="8">
         <f t="shared" si="8"/>
-        <v>4.5037919826652217</v>
+        <v>4.3087757313109423</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="9"/>
@@ -16843,7 +16843,7 @@
       </c>
       <c r="N100" s="4">
         <f t="shared" si="12"/>
-        <v>8.3125</v>
+        <v>6.90625</v>
       </c>
       <c r="O100" s="4">
         <f t="shared" si="13"/>
@@ -16859,7 +16859,7 @@
         <v>246</v>
       </c>
       <c r="S100">
-        <v>645</v>
+        <v>465</v>
       </c>
       <c r="T100" s="3">
         <v>3093</v>
@@ -16919,7 +16919,7 @@
       </c>
       <c r="J101" s="8">
         <f t="shared" si="8"/>
-        <v>33.682746113989637</v>
+        <v>0.33689119170984455</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="9"/>
@@ -16935,7 +16935,7 @@
       </c>
       <c r="N101" s="4">
         <f t="shared" si="12"/>
-        <v>413.8919134033747</v>
+        <v>4.1020375676536132</v>
       </c>
       <c r="O101" s="4">
         <f t="shared" si="13"/>
@@ -16951,7 +16951,7 @@
         <v>663</v>
       </c>
       <c r="S101">
-        <v>2600000</v>
+        <v>25700</v>
       </c>
       <c r="T101" s="3">
         <v>239</v>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="J102" s="8">
         <f t="shared" si="8"/>
-        <v>34138.340724478592</v>
+        <v>3.1925356750823273</v>
       </c>
       <c r="K102" s="7">
         <f t="shared" si="9"/>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="N102" s="4">
         <f t="shared" si="12"/>
-        <v>119.61541576923076</v>
+        <v>1.1108076923076924E-2</v>
       </c>
       <c r="O102" s="4">
         <f t="shared" si="13"/>
@@ -17043,7 +17043,7 @@
         <v>56</v>
       </c>
       <c r="S102">
-        <v>311000000</v>
+        <v>28800</v>
       </c>
       <c r="T102" s="3">
         <v>203</v>
@@ -17103,7 +17103,7 @@
       </c>
       <c r="J103" s="8">
         <f t="shared" si="8"/>
-        <v>1.7131653823355069</v>
+        <v>5.762299940723177E-2</v>
       </c>
       <c r="K103" s="7">
         <f t="shared" si="9"/>
@@ -17119,7 +17119,7 @@
       </c>
       <c r="N103" s="4">
         <f t="shared" si="12"/>
-        <v>47.059170627765937</v>
+        <v>1.2814292738895263</v>
       </c>
       <c r="O103" s="4">
         <f t="shared" si="13"/>
@@ -17135,7 +17135,7 @@
         <v>866</v>
       </c>
       <c r="S103">
-        <v>286900</v>
+        <v>7610</v>
       </c>
       <c r="T103" s="3">
         <v>1903</v>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="J104" s="8">
         <f t="shared" si="8"/>
-        <v>318.31008450704223</v>
+        <v>3.2537464788732393</v>
       </c>
       <c r="K104" s="7">
         <f t="shared" si="9"/>
@@ -17211,7 +17211,7 @@
       </c>
       <c r="N104" s="4">
         <f t="shared" si="12"/>
-        <v>23.061236734693878</v>
+        <v>0.23572653061224491</v>
       </c>
       <c r="O104" s="4">
         <f t="shared" si="13"/>
@@ -17227,7 +17227,7 @@
         <v>516</v>
       </c>
       <c r="S104">
-        <v>11300000</v>
+        <v>115500</v>
       </c>
       <c r="T104" s="3">
         <v>2</v>
@@ -17287,7 +17287,7 @@
       </c>
       <c r="J105" s="8">
         <f t="shared" si="8"/>
-        <v>8.5614123006833704</v>
+        <v>2.8086560364464691E-2</v>
       </c>
       <c r="K105" s="7">
         <f t="shared" si="9"/>
@@ -17303,7 +17303,7 @@
       </c>
       <c r="N105" s="4">
         <f t="shared" si="12"/>
-        <v>36.478932038834948</v>
+        <v>0.1087378640776699</v>
       </c>
       <c r="O105" s="4">
         <f t="shared" si="13"/>
@@ -17319,7 +17319,7 @@
         <v>1671</v>
       </c>
       <c r="S105">
-        <v>375700</v>
+        <v>1087</v>
       </c>
       <c r="T105" s="3">
         <v>113</v>
@@ -17379,7 +17379,7 @@
       </c>
       <c r="J106" s="8">
         <f t="shared" si="8"/>
-        <v>0.26333802631578945</v>
+        <v>4.7026315789473684E-4</v>
       </c>
       <c r="K106" s="7">
         <f t="shared" si="9"/>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="N106" s="4">
         <f t="shared" si="12"/>
-        <v>48.547742718446599</v>
+        <v>5.7572815533980581E-2</v>
       </c>
       <c r="O106" s="4">
         <f t="shared" si="13"/>
@@ -17411,7 +17411,7 @@
         <v>1796</v>
       </c>
       <c r="S106">
-        <v>2000000</v>
+        <v>2205</v>
       </c>
       <c r="T106" s="3">
         <v>1202</v>
@@ -17471,7 +17471,7 @@
       </c>
       <c r="J107" s="8">
         <f t="shared" si="8"/>
-        <v>103.66871951219512</v>
+        <v>3.4195121951219515E-2</v>
       </c>
       <c r="K107" s="7">
         <f t="shared" si="9"/>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="N107" s="4">
         <f t="shared" si="12"/>
-        <v>52.245193607867243</v>
+        <v>1.3902888752304856E-2</v>
       </c>
       <c r="O107" s="4">
         <f t="shared" si="13"/>
@@ -17503,7 +17503,7 @@
         <v>313</v>
       </c>
       <c r="S107">
-        <v>8500000</v>
+        <v>1969</v>
       </c>
       <c r="T107" s="3">
         <v>542</v>
@@ -17563,7 +17563,7 @@
       </c>
       <c r="J108" s="8">
         <f t="shared" si="8"/>
-        <v>5035.5</v>
+        <v>167.07894736842104</v>
       </c>
       <c r="K108" s="7">
         <f t="shared" si="9"/>
@@ -17579,7 +17579,7 @@
       </c>
       <c r="N108" s="4">
         <f t="shared" si="12"/>
-        <v>39.209631147540982</v>
+        <v>1.2997950819672131</v>
       </c>
       <c r="O108" s="4">
         <f t="shared" si="13"/>
@@ -17595,7 +17595,7 @@
         <v>686</v>
       </c>
       <c r="S108">
-        <v>956700</v>
+        <v>31700</v>
       </c>
       <c r="T108" s="3">
         <v>30</v>
@@ -17655,7 +17655,7 @@
       </c>
       <c r="J109" s="8">
         <f t="shared" si="8"/>
-        <v>3.5102286401925392E-2</v>
+        <v>4.0794223826714805E-3</v>
       </c>
       <c r="K109" s="7">
         <f t="shared" si="9"/>
@@ -17671,7 +17671,7 @@
       </c>
       <c r="N109" s="4">
         <f t="shared" si="12"/>
-        <v>33.981481481481481</v>
+        <v>2.1543209876543208</v>
       </c>
       <c r="O109" s="4">
         <f t="shared" si="13"/>
@@ -17687,7 +17687,7 @@
         <v>248</v>
       </c>
       <c r="S109">
-        <v>5316</v>
+        <v>160</v>
       </c>
       <c r="T109" s="3">
         <v>329</v>
@@ -17747,7 +17747,7 @@
       </c>
       <c r="J110" s="8">
         <f t="shared" si="8"/>
-        <v>5.815266666666667</v>
+        <v>5.0466666666666667E-2</v>
       </c>
       <c r="K110" s="7">
         <f t="shared" si="9"/>
@@ -17763,7 +17763,7 @@
       </c>
       <c r="N110" s="4">
         <f t="shared" si="12"/>
-        <v>23.206979222163024</v>
+        <v>0.17234949387320192</v>
       </c>
       <c r="O110" s="4">
         <f t="shared" si="13"/>
@@ -17779,7 +17779,7 @@
         <v>661</v>
       </c>
       <c r="S110">
-        <v>87100</v>
+        <v>628</v>
       </c>
       <c r="T110" s="3">
         <v>110</v>
@@ -17839,7 +17839,7 @@
       </c>
       <c r="J111" s="8">
         <f t="shared" si="8"/>
-        <v>0.41949972512369432</v>
+        <v>6.7108301264431E-2</v>
       </c>
       <c r="K111" s="7">
         <f t="shared" si="9"/>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="N111" s="4">
         <f t="shared" si="12"/>
-        <v>108.06940509915015</v>
+        <v>17.276203966005667</v>
       </c>
       <c r="O111" s="4">
         <f t="shared" si="13"/>
@@ -17871,7 +17871,7 @@
         <v>5373</v>
       </c>
       <c r="S111">
-        <v>76200</v>
+        <v>12100</v>
       </c>
       <c r="T111" s="3">
         <v>10</v>
@@ -17931,7 +17931,7 @@
       </c>
       <c r="J112" s="8">
         <f t="shared" si="8"/>
-        <v>5.6449136276391552E-2</v>
+        <v>1.7658349328214971E-3</v>
       </c>
       <c r="K112" s="7">
         <f t="shared" si="9"/>
@@ -17947,7 +17947,7 @@
       </c>
       <c r="N112" s="4">
         <f t="shared" si="12"/>
-        <v>4.0293706293706295</v>
+        <v>4.4755244755244755E-2</v>
       </c>
       <c r="O112" s="4">
         <f t="shared" si="13"/>
@@ -17963,7 +17963,7 @@
         <v>1719</v>
       </c>
       <c r="S112">
-        <v>2872</v>
+        <v>23</v>
       </c>
       <c r="T112" s="3">
         <v>60</v>
@@ -18023,7 +18023,7 @@
       </c>
       <c r="J113" s="8">
         <f t="shared" si="8"/>
-        <v>37.397885874649205</v>
+        <v>0.29482382288743375</v>
       </c>
       <c r="K113" s="7">
         <f t="shared" si="9"/>
@@ -18039,7 +18039,7 @@
       </c>
       <c r="N113" s="4">
         <f t="shared" si="12"/>
-        <v>43.474806428049668</v>
+        <v>1.6252739225712198E-2</v>
       </c>
       <c r="O113" s="4">
         <f t="shared" si="13"/>
@@ -18055,7 +18055,7 @@
         <v>49</v>
       </c>
       <c r="S113">
-        <v>11900000</v>
+        <v>1048</v>
       </c>
       <c r="T113" s="3">
         <v>90100</v>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="J114" s="8">
         <f t="shared" si="8"/>
-        <v>134.41983870967741</v>
+        <v>2.1290322580645161E-2</v>
       </c>
       <c r="K114" s="7">
         <f t="shared" si="9"/>
@@ -18131,7 +18131,7 @@
       </c>
       <c r="N114" s="4">
         <f t="shared" si="12"/>
-        <v>123.15492610837438</v>
+        <v>1.1428571428571429E-2</v>
       </c>
       <c r="O114" s="4">
         <f t="shared" si="13"/>
@@ -18147,7 +18147,7 @@
         <v>5</v>
       </c>
       <c r="S114">
-        <v>2500000</v>
+        <v>187</v>
       </c>
       <c r="T114" s="3">
         <v>164</v>
@@ -18207,7 +18207,7 @@
       </c>
       <c r="J115" s="8">
         <f t="shared" si="8"/>
-        <v>7424.5108674745143</v>
+        <v>0.80111559915368336</v>
       </c>
       <c r="K115" s="7">
         <f t="shared" si="9"/>
@@ -18223,7 +18223,7 @@
       </c>
       <c r="N115" s="4">
         <f t="shared" si="12"/>
-        <v>35.090919999999997</v>
+        <v>3.7681818181818181E-3</v>
       </c>
       <c r="O115" s="4">
         <f t="shared" si="13"/>
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="S115">
-        <v>38600000</v>
+        <v>4133</v>
       </c>
       <c r="T115" s="3">
         <v>20</v>
@@ -18299,7 +18299,7 @@
       </c>
       <c r="J116" s="8">
         <f t="shared" si="8"/>
-        <v>5671.0509887236476</v>
+        <v>1.5247589475404477</v>
       </c>
       <c r="K116" s="7">
         <f t="shared" si="9"/>
@@ -18315,7 +18315,7 @@
       </c>
       <c r="N116" s="4">
         <f t="shared" si="12"/>
-        <v>234.30141796083728</v>
+        <v>5.5428764348413234E-2</v>
       </c>
       <c r="O116" s="4">
         <f t="shared" si="13"/>
@@ -18331,7 +18331,7 @@
         <v>380</v>
       </c>
       <c r="S116">
-        <v>34700000</v>
+        <v>8169</v>
       </c>
       <c r="T116" s="3">
         <v>1121</v>
@@ -18391,7 +18391,7 @@
       </c>
       <c r="J117" s="8">
         <f t="shared" si="8"/>
-        <v>5.1233902439024391E-2</v>
+        <v>4.1119512195121949E-3</v>
       </c>
       <c r="K117" s="7">
         <f t="shared" si="9"/>
@@ -18407,7 +18407,7 @@
       </c>
       <c r="N117" s="4">
         <f t="shared" si="12"/>
-        <v>5.8473184357541896</v>
+        <v>0.45067039106145251</v>
       </c>
       <c r="O117" s="4">
         <f t="shared" si="13"/>
@@ -18423,7 +18423,7 @@
         <v>924</v>
       </c>
       <c r="S117">
-        <v>209300</v>
+        <v>16100</v>
       </c>
       <c r="T117" s="3">
         <v>725</v>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="J118" s="8">
         <f t="shared" si="8"/>
-        <v>9.8000530000000001</v>
+        <v>4.4099999999999999E-4</v>
       </c>
       <c r="K118" s="7">
         <f t="shared" si="9"/>
@@ -18499,7 +18499,7 @@
       </c>
       <c r="N118" s="4">
         <f t="shared" si="12"/>
-        <v>164.70658823529411</v>
+        <v>7.2268907563025212E-3</v>
       </c>
       <c r="O118" s="4">
         <f t="shared" si="13"/>
@@ -18515,7 +18515,7 @@
         <v>190</v>
       </c>
       <c r="S118">
-        <v>9800000</v>
+        <v>388</v>
       </c>
       <c r="T118" s="3">
         <v>11</v>
@@ -18575,7 +18575,7 @@
       </c>
       <c r="J119" s="8">
         <f t="shared" si="8"/>
-        <v>17.29636322257624</v>
+        <v>0.12066909421939008</v>
       </c>
       <c r="K119" s="7">
         <f t="shared" si="9"/>
@@ -18591,7 +18591,7 @@
       </c>
       <c r="N119" s="4">
         <f t="shared" si="12"/>
-        <v>31.366120511762279</v>
+        <v>0.21878250103177879</v>
       </c>
       <c r="O119" s="4">
         <f t="shared" si="13"/>
@@ -18607,7 +18607,7 @@
         <v>493</v>
       </c>
       <c r="S119">
-        <v>7600000</v>
+        <v>53000</v>
       </c>
       <c r="T119" s="3">
         <v>11</v>
@@ -18667,7 +18667,7 @@
       </c>
       <c r="J120" s="8">
         <f t="shared" si="8"/>
-        <v>13.89422761146899</v>
+        <v>9.8597953770367563E-2</v>
       </c>
       <c r="K120" s="7">
         <f t="shared" si="9"/>
@@ -18683,7 +18683,7 @@
       </c>
       <c r="N120" s="4">
         <f t="shared" si="12"/>
-        <v>16.99106580166821</v>
+        <v>0.12050664195242508</v>
       </c>
       <c r="O120" s="4">
         <f t="shared" si="13"/>
@@ -18699,7 +18699,7 @@
         <v>1307</v>
       </c>
       <c r="S120">
-        <v>11000000</v>
+        <v>78000</v>
       </c>
       <c r="T120" s="3">
         <v>44</v>
@@ -18759,7 +18759,7 @@
       </c>
       <c r="J121" s="8">
         <f t="shared" si="8"/>
-        <v>23.732588996763756</v>
+        <v>6.2567421790722761E-3</v>
       </c>
       <c r="K121" s="7">
         <f t="shared" si="9"/>
@@ -18775,7 +18775,7 @@
       </c>
       <c r="N121" s="4">
         <f t="shared" si="12"/>
-        <v>247.91627225602886</v>
+        <v>6.5134099616858232E-2</v>
       </c>
       <c r="O121" s="4">
         <f t="shared" si="13"/>
@@ -18791,7 +18791,7 @@
         <v>1061</v>
       </c>
       <c r="S121">
-        <v>2200000</v>
+        <v>569</v>
       </c>
       <c r="T121" s="3">
         <v>2</v>
@@ -18851,7 +18851,7 @@
       </c>
       <c r="J122" s="8">
         <f t="shared" si="8"/>
-        <v>150.35235294117646</v>
+        <v>0.14869281045751634</v>
       </c>
       <c r="K122" s="7">
         <f t="shared" si="9"/>
@@ -18867,7 +18867,7 @@
       </c>
       <c r="N122" s="4">
         <f t="shared" si="12"/>
-        <v>37.399138211382116</v>
+        <v>3.139837398373984E-2</v>
       </c>
       <c r="O122" s="4">
         <f t="shared" si="13"/>
@@ -18883,7 +18883,7 @@
         <v>489</v>
       </c>
       <c r="S122">
-        <v>2300000</v>
+        <v>1884</v>
       </c>
       <c r="T122" s="3">
         <v>344</v>
@@ -18943,7 +18943,7 @@
       </c>
       <c r="J123" s="8">
         <f t="shared" si="8"/>
-        <v>5.7204610951008643E-2</v>
+        <v>4.755043227665706E-4</v>
       </c>
       <c r="K123" s="7">
         <f t="shared" si="9"/>
@@ -18959,7 +18959,7 @@
       </c>
       <c r="N123" s="4">
         <f t="shared" si="12"/>
-        <v>7.7290448343079925</v>
+        <v>5.4580896686159841E-2</v>
       </c>
       <c r="O123" s="4">
         <f t="shared" si="13"/>
@@ -18975,7 +18975,7 @@
         <v>2652</v>
       </c>
       <c r="S123">
-        <v>3955</v>
+        <v>18</v>
       </c>
       <c r="T123" s="3">
         <v>5</v>
@@ -19035,7 +19035,7 @@
       </c>
       <c r="J124" s="8">
         <f t="shared" si="8"/>
-        <v>0.55259414225941428</v>
+        <v>7.9539748953974893E-2</v>
       </c>
       <c r="K124" s="7">
         <f t="shared" si="9"/>
@@ -19051,7 +19051,7 @@
       </c>
       <c r="N124" s="4">
         <f t="shared" si="12"/>
-        <v>49.646616541353382</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="O124" s="4">
         <f t="shared" si="13"/>
@@ -19067,7 +19067,7 @@
         <v>526</v>
       </c>
       <c r="S124">
-        <v>13200</v>
+        <v>1894</v>
       </c>
       <c r="T124" s="3">
         <v>1</v>
@@ -19127,7 +19127,7 @@
       </c>
       <c r="J125" s="8">
         <f t="shared" si="8"/>
-        <v>221103.06989313354</v>
+        <v>32.943373049993859</v>
       </c>
       <c r="K125" s="7">
         <f t="shared" si="9"/>
@@ -19143,7 +19143,7 @@
       </c>
       <c r="N125" s="4">
         <f t="shared" si="12"/>
-        <v>106.50887680473373</v>
+        <v>1.5864970414201183E-2</v>
       </c>
       <c r="O125" s="4">
         <f t="shared" si="13"/>
@@ -19159,7 +19159,7 @@
         <v>183</v>
       </c>
       <c r="S125">
-        <v>1800000000</v>
+        <v>268100</v>
       </c>
       <c r="T125" s="3">
         <v>74</v>
@@ -19219,7 +19219,7 @@
       </c>
       <c r="J126" s="8">
         <f t="shared" si="8"/>
-        <v>100.25555915254238</v>
+        <v>0.10215237288135594</v>
       </c>
       <c r="K126" s="7">
         <f t="shared" si="9"/>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="N126" s="4">
         <f t="shared" si="12"/>
-        <v>40.513929383561646</v>
+        <v>4.0977328767123289E-2</v>
       </c>
       <c r="O126" s="4">
         <f t="shared" si="13"/>
@@ -19251,7 +19251,7 @@
         <v>783</v>
       </c>
       <c r="S126">
-        <v>591500000</v>
+        <v>594900</v>
       </c>
       <c r="T126" s="3">
         <v>4430</v>
@@ -19311,7 +19311,7 @@
       </c>
       <c r="J127" s="8">
         <f t="shared" si="8"/>
-        <v>5636.9696307625081</v>
+        <v>62.685164955210837</v>
       </c>
       <c r="K127" s="7">
         <f t="shared" si="9"/>
@@ -19327,7 +19327,7 @@
       </c>
       <c r="N127" s="4">
         <f t="shared" si="12"/>
-        <v>17.200116666666666</v>
+        <v>0.19111666666666666</v>
       </c>
       <c r="O127" s="4">
         <f t="shared" si="13"/>
@@ -19343,7 +19343,7 @@
         <v>122</v>
       </c>
       <c r="S127">
-        <v>25800000</v>
+        <v>286500</v>
       </c>
       <c r="T127" s="3">
         <v>235</v>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="J128" s="8">
         <f t="shared" si="8"/>
-        <v>722.59807715860381</v>
+        <v>2.8411879975505205</v>
       </c>
       <c r="K128" s="7">
         <f t="shared" si="9"/>
@@ -19419,7 +19419,7 @@
       </c>
       <c r="N128" s="4">
         <f t="shared" si="12"/>
-        <v>38.064537741935482</v>
+        <v>0.14960225806451613</v>
       </c>
       <c r="O128" s="4">
         <f t="shared" si="13"/>
@@ -19435,7 +19435,7 @@
         <v>23</v>
       </c>
       <c r="S128">
-        <v>118000000</v>
+        <v>463700</v>
       </c>
       <c r="T128" s="3">
         <v>199</v>
@@ -19495,7 +19495,7 @@
       </c>
       <c r="J129" s="8">
         <f t="shared" si="8"/>
-        <v>1320.4476243093923</v>
+        <v>0.48325966850828728</v>
       </c>
       <c r="K129" s="7">
         <f t="shared" si="9"/>
@@ -19511,7 +19511,7 @@
       </c>
       <c r="N129" s="4">
         <f t="shared" si="12"/>
-        <v>17.071447142857142</v>
+        <v>6.1935714285714285E-3</v>
       </c>
       <c r="O129" s="4">
         <f t="shared" si="13"/>
@@ -19527,7 +19527,7 @@
         <v>2009</v>
       </c>
       <c r="S129">
-        <v>23900000</v>
+        <v>8645</v>
       </c>
       <c r="T129" s="3">
         <v>76</v>
@@ -19587,7 +19587,7 @@
       </c>
       <c r="J130" s="8">
         <f t="shared" si="8"/>
-        <v>5.1923766816143502</v>
+        <v>2.803870663205098E-3</v>
       </c>
       <c r="K130" s="7">
         <f t="shared" si="9"/>
@@ -19603,7 +19603,7 @@
       </c>
       <c r="N130" s="4">
         <f t="shared" si="12"/>
-        <v>23.354628450106159</v>
+        <v>1.2569002123142251E-2</v>
       </c>
       <c r="O130" s="4">
         <f t="shared" si="13"/>
@@ -19619,7 +19619,7 @@
         <v>165</v>
       </c>
       <c r="S130">
-        <v>2200000</v>
+        <v>1178</v>
       </c>
       <c r="T130" s="3">
         <v>4</v>
@@ -19679,7 +19679,7 @@
       </c>
       <c r="J131" s="8">
         <f t="shared" ref="J131:J194" si="15">IFERROR((S131+T131+U131)/V131,"")</f>
-        <v>0.21544186046511629</v>
+        <v>9.8790697674418601E-2</v>
       </c>
       <c r="K131" s="7">
         <f t="shared" ref="K131:K194" si="16">IFERROR(U131/V131,"")</f>
@@ -19695,7 +19695,7 @@
       </c>
       <c r="N131" s="4">
         <f t="shared" ref="N131:N194" si="19">IFERROR((S131+U131)/Q131,"")</f>
-        <v>6.3351573187414498</v>
+        <v>2.9042407660738716</v>
       </c>
       <c r="O131" s="4">
         <f t="shared" ref="O131:O194" si="20">IFERROR(100/(L131+1),"")</f>
@@ -19711,7 +19711,7 @@
         <v>239</v>
       </c>
       <c r="S131">
-        <v>4614</v>
+        <v>2106</v>
       </c>
       <c r="T131" s="3">
         <v>1</v>
@@ -19771,7 +19771,7 @@
       </c>
       <c r="J132" s="8">
         <f t="shared" si="15"/>
-        <v>1.6313367609254499</v>
+        <v>0.44881748071979433</v>
       </c>
       <c r="K132" s="7">
         <f t="shared" si="16"/>
@@ -19787,7 +19787,7 @@
       </c>
       <c r="N132" s="4">
         <f t="shared" si="19"/>
-        <v>61.507274490785647</v>
+        <v>16.890397672162948</v>
       </c>
       <c r="O132" s="4">
         <f t="shared" si="20"/>
@@ -19803,7 +19803,7 @@
         <v>95</v>
       </c>
       <c r="S132">
-        <v>63400</v>
+        <v>17400</v>
       </c>
       <c r="T132" s="3">
         <v>45</v>
@@ -19863,7 +19863,7 @@
       </c>
       <c r="J133" s="8">
         <f t="shared" si="15"/>
-        <v>297230.71296296298</v>
+        <v>2199.2314814814813</v>
       </c>
       <c r="K133" s="7">
         <f t="shared" si="16"/>
@@ -19879,7 +19879,7 @@
       </c>
       <c r="N133" s="4">
         <f t="shared" si="19"/>
-        <v>29.181874545454544</v>
+        <v>0.21514727272727271</v>
       </c>
       <c r="O133" s="4">
         <f t="shared" si="20"/>
@@ -19895,7 +19895,7 @@
         <v>92</v>
       </c>
       <c r="S133">
-        <v>32100000</v>
+        <v>236600</v>
       </c>
       <c r="T133" s="3">
         <v>855</v>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="J134" s="8">
         <f t="shared" si="15"/>
-        <v>256.54560869565216</v>
+        <v>0.30669565217391304</v>
       </c>
       <c r="K134" s="7">
         <f t="shared" si="16"/>
@@ -19971,7 +19971,7 @@
       </c>
       <c r="N134" s="4">
         <f t="shared" si="19"/>
-        <v>19.466417024084461</v>
+        <v>2.235565819861432E-2</v>
       </c>
       <c r="O134" s="4">
         <f t="shared" si="20"/>
@@ -19987,7 +19987,7 @@
         <v>495</v>
       </c>
       <c r="S134">
-        <v>5900000</v>
+        <v>6505</v>
       </c>
       <c r="T134" s="3">
         <v>278</v>
@@ -20047,7 +20047,7 @@
       </c>
       <c r="J135" s="8">
         <f t="shared" si="15"/>
-        <v>13.588042986425339</v>
+        <v>9.6685520361990948E-2</v>
       </c>
       <c r="K135" s="7">
         <f t="shared" si="16"/>
@@ -20063,7 +20063,7 @@
       </c>
       <c r="N135" s="4">
         <f t="shared" si="19"/>
-        <v>25.644636752136751</v>
+        <v>0.16096153846153846</v>
       </c>
       <c r="O135" s="4">
         <f t="shared" si="20"/>
@@ -20079,7 +20079,7 @@
         <v>121</v>
       </c>
       <c r="S135">
-        <v>1200000</v>
+        <v>7364</v>
       </c>
       <c r="T135" s="3">
         <v>1014</v>
@@ -20139,7 +20139,7 @@
       </c>
       <c r="J136" s="8">
         <f t="shared" si="15"/>
-        <v>331.27911909090909</v>
+        <v>0.25575545454545456</v>
       </c>
       <c r="K136" s="7">
         <f t="shared" si="16"/>
@@ -20155,7 +20155,7 @@
       </c>
       <c r="N136" s="4">
         <f t="shared" si="19"/>
-        <v>79.217434130434782</v>
+        <v>5.9673260869565217E-2</v>
       </c>
       <c r="O136" s="4">
         <f t="shared" si="20"/>
@@ -20171,7 +20171,7 @@
         <v>1750</v>
       </c>
       <c r="S136">
-        <v>364400000</v>
+        <v>274300</v>
       </c>
       <c r="T136" s="3">
         <v>6834</v>
@@ -20231,7 +20231,7 @@
       </c>
       <c r="J137" s="8">
         <f t="shared" si="15"/>
-        <v>31333.52048192771</v>
+        <v>14.079518072289156</v>
       </c>
       <c r="K137" s="7">
         <f t="shared" si="16"/>
@@ -20247,7 +20247,7 @@
       </c>
       <c r="N137" s="4">
         <f t="shared" si="19"/>
-        <v>15.155834693401726</v>
+        <v>3.6220564234087198E-3</v>
       </c>
       <c r="O137" s="4">
         <f t="shared" si="20"/>
@@ -20263,7 +20263,7 @@
         <v>196</v>
       </c>
       <c r="S137">
-        <v>13000000</v>
+        <v>2432</v>
       </c>
       <c r="T137" s="3">
         <v>2736</v>
@@ -20323,7 +20323,7 @@
       </c>
       <c r="J138" s="8">
         <f t="shared" si="15"/>
-        <v>193.9162119503946</v>
+        <v>2.4599774520856821E-2</v>
       </c>
       <c r="K138" s="7">
         <f t="shared" si="16"/>
@@ -20339,7 +20339,7 @@
       </c>
       <c r="N138" s="4">
         <f t="shared" si="19"/>
-        <v>37.229564935064936</v>
+        <v>4.0541125541125539E-3</v>
       </c>
       <c r="O138" s="4">
         <f t="shared" si="20"/>
@@ -20355,7 +20355,7 @@
         <v>808</v>
       </c>
       <c r="S138">
-        <v>17200000</v>
+        <v>1814</v>
       </c>
       <c r="T138" s="3">
         <v>309</v>
@@ -20415,7 +20415,7 @@
       </c>
       <c r="J139" s="8">
         <f t="shared" si="15"/>
-        <v>0.56293937500000002</v>
+        <v>7.7518750000000001E-3</v>
       </c>
       <c r="K139" s="7">
         <f t="shared" si="16"/>
@@ -20431,7 +20431,7 @@
       </c>
       <c r="N139" s="4">
         <f t="shared" si="19"/>
-        <v>42.969618138424821</v>
+        <v>0.56866348448687354</v>
       </c>
       <c r="O139" s="4">
         <f t="shared" si="20"/>
@@ -20447,7 +20447,7 @@
         <v>673</v>
       </c>
       <c r="S139">
-        <v>1800000</v>
+        <v>23400</v>
       </c>
       <c r="T139" s="3">
         <v>979</v>
@@ -20507,7 +20507,7 @@
       </c>
       <c r="J140" s="8">
         <f t="shared" si="15"/>
-        <v>69.115931714285708</v>
+        <v>7.9031428571428568E-3</v>
       </c>
       <c r="K140" s="7">
         <f t="shared" si="16"/>
@@ -20523,7 +20523,7 @@
       </c>
       <c r="N140" s="4">
         <f t="shared" si="19"/>
-        <v>62.025818974358977</v>
+        <v>5.7933333333333335E-3</v>
       </c>
       <c r="O140" s="4">
         <f t="shared" si="20"/>
@@ -20539,7 +20539,7 @@
         <v>1716</v>
       </c>
       <c r="S140">
-        <v>241900000</v>
+        <v>21900</v>
       </c>
       <c r="T140" s="3">
         <v>5067</v>
@@ -20599,7 +20599,7 @@
       </c>
       <c r="J141" s="8">
         <f t="shared" si="15"/>
-        <v>123.82505896226415</v>
+        <v>9.9080188679245285E-2</v>
       </c>
       <c r="K141" s="7">
         <f t="shared" si="16"/>
@@ -20615,7 +20615,7 @@
       </c>
       <c r="N141" s="4">
         <f t="shared" si="19"/>
-        <v>55.852547872340423</v>
+        <v>4.4234042553191487E-2</v>
       </c>
       <c r="O141" s="4">
         <f t="shared" si="20"/>
@@ -20631,7 +20631,7 @@
         <v>88</v>
       </c>
       <c r="S141">
-        <v>10500000</v>
+        <v>8037</v>
       </c>
       <c r="T141" s="3">
         <v>86</v>
@@ -20691,7 +20691,7 @@
       </c>
       <c r="J142" s="8">
         <f t="shared" si="15"/>
-        <v>271.37336245166836</v>
+        <v>0.92742231132750963</v>
       </c>
       <c r="K142" s="7">
         <f t="shared" si="16"/>
@@ -20707,7 +20707,7 @@
       </c>
       <c r="N142" s="4">
         <f t="shared" si="19"/>
-        <v>72.884620384615388</v>
+        <v>0.24908192307692309</v>
       </c>
       <c r="O142" s="4">
         <f t="shared" si="20"/>
@@ -20723,7 +20723,7 @@
         <v>1153</v>
       </c>
       <c r="S142">
-        <v>189500000</v>
+        <v>647600</v>
       </c>
       <c r="T142" s="3">
         <v>6</v>
@@ -20783,7 +20783,7 @@
       </c>
       <c r="J143" s="8">
         <f t="shared" si="15"/>
-        <v>144.51736030828516</v>
+        <v>1.4923121387283238</v>
       </c>
       <c r="K143" s="7">
         <f t="shared" si="16"/>
@@ -20799,7 +20799,7 @@
       </c>
       <c r="N143" s="4">
         <f t="shared" si="19"/>
-        <v>48.893787483702738</v>
+        <v>0.50395697522816163</v>
       </c>
       <c r="O143" s="4">
         <f t="shared" si="20"/>
@@ -20815,7 +20815,7 @@
         <v>1133</v>
       </c>
       <c r="S143">
-        <v>7500000</v>
+        <v>77000</v>
       </c>
       <c r="T143" s="3">
         <v>144</v>
@@ -20875,7 +20875,7 @@
       </c>
       <c r="J144" s="8">
         <f t="shared" si="15"/>
-        <v>0.49816153846153849</v>
+        <v>4.0461538461538461E-4</v>
       </c>
       <c r="K144" s="7">
         <f t="shared" si="16"/>
@@ -20891,7 +20891,7 @@
       </c>
       <c r="N144" s="4">
         <f t="shared" si="19"/>
-        <v>365.19796954314722</v>
+        <v>0.2323745064861816</v>
       </c>
       <c r="O144" s="4">
         <f t="shared" si="20"/>
@@ -20907,7 +20907,7 @@
         <v>735</v>
       </c>
       <c r="S144">
-        <v>647300</v>
+        <v>216</v>
       </c>
       <c r="T144" s="3">
         <v>114</v>
@@ -20967,7 +20967,7 @@
       </c>
       <c r="J145" s="8">
         <f t="shared" si="15"/>
-        <v>47.686145124716553</v>
+        <v>0.54555555555555557</v>
       </c>
       <c r="K145" s="7">
         <f t="shared" si="16"/>
@@ -20983,7 +20983,7 @@
       </c>
       <c r="N145" s="4">
         <f t="shared" si="19"/>
-        <v>16.829975961538462</v>
+        <v>0.17212339743589744</v>
       </c>
       <c r="O145" s="4">
         <f t="shared" si="20"/>
@@ -20999,7 +20999,7 @@
         <v>813</v>
       </c>
       <c r="S145">
-        <v>2100000</v>
+        <v>21100</v>
       </c>
       <c r="T145" s="3">
         <v>2578</v>
@@ -21059,7 +21059,7 @@
       </c>
       <c r="J146" s="8">
         <f t="shared" si="15"/>
-        <v>643.40184538653364</v>
+        <v>0.26468827930174565</v>
       </c>
       <c r="K146" s="7">
         <f t="shared" si="16"/>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="N146" s="4">
         <f t="shared" si="19"/>
-        <v>17.20017</v>
+        <v>6.9699999999999996E-3</v>
       </c>
       <c r="O146" s="4">
         <f t="shared" si="20"/>
@@ -21091,7 +21091,7 @@
         <v>416</v>
       </c>
       <c r="S146">
-        <v>25800000</v>
+        <v>10200</v>
       </c>
       <c r="T146" s="3">
         <v>159</v>
@@ -21151,7 +21151,7 @@
       </c>
       <c r="J147" s="8">
         <f t="shared" si="15"/>
-        <v>51.194573378839593</v>
+        <v>1.5358361774744026E-3</v>
       </c>
       <c r="K147" s="7">
         <f t="shared" si="16"/>
@@ -21167,7 +21167,7 @@
       </c>
       <c r="N147" s="4">
         <f t="shared" si="19"/>
-        <v>5.296613700564972</v>
+        <v>1.5889830508474575E-4</v>
       </c>
       <c r="O147" s="4">
         <f t="shared" si="20"/>
@@ -21183,7 +21183,7 @@
         <v>27</v>
       </c>
       <c r="S147">
-        <v>1500000</v>
+        <v>44</v>
       </c>
       <c r="T147" s="3">
         <v>0</v>
@@ -21243,7 +21243,7 @@
       </c>
       <c r="J148" s="8">
         <f t="shared" si="15"/>
-        <v>17.977817014446227</v>
+        <v>8.439807383627608E-2</v>
       </c>
       <c r="K148" s="7">
         <f t="shared" si="16"/>
@@ -21259,7 +21259,7 @@
       </c>
       <c r="N148" s="4">
         <f t="shared" si="19"/>
-        <v>49.55796460176991</v>
+        <v>0.23230088495575221</v>
       </c>
       <c r="O148" s="4">
         <f t="shared" si="20"/>
@@ -21275,7 +21275,7 @@
         <v>328</v>
       </c>
       <c r="S148">
-        <v>5600000</v>
+        <v>26200</v>
       </c>
       <c r="T148" s="3">
         <v>40</v>
@@ -21335,7 +21335,7 @@
       </c>
       <c r="J149" s="8">
         <f t="shared" si="15"/>
-        <v>1210.6991326346224</v>
+        <v>18.270509577159377</v>
       </c>
       <c r="K149" s="7">
         <f t="shared" si="16"/>
@@ -21351,7 +21351,7 @@
       </c>
       <c r="N149" s="4">
         <f t="shared" si="19"/>
-        <v>97.101579710144932</v>
+        <v>1.4653478260869566</v>
       </c>
       <c r="O149" s="4">
         <f t="shared" si="20"/>
@@ -21367,7 +21367,7 @@
         <v>811</v>
       </c>
       <c r="S149">
-        <v>6700000</v>
+        <v>101100</v>
       </c>
       <c r="T149" s="3">
         <v>0</v>
@@ -21427,7 +21427,7 @@
       </c>
       <c r="J150" s="8">
         <f t="shared" si="15"/>
-        <v>2.6124000868809731</v>
+        <v>9.2180712423979155E-3</v>
       </c>
       <c r="K150" s="7">
         <f t="shared" si="16"/>
@@ -21443,7 +21443,7 @@
       </c>
       <c r="N150" s="4">
         <f t="shared" si="19"/>
-        <v>75.028437499999995</v>
+        <v>0.121875</v>
       </c>
       <c r="O150" s="4">
         <f t="shared" si="20"/>
@@ -21459,7 +21459,7 @@
         <v>1327</v>
       </c>
       <c r="S150">
-        <v>1200000</v>
+        <v>1495</v>
       </c>
       <c r="T150" s="3">
         <v>2294</v>
@@ -21519,7 +21519,7 @@
       </c>
       <c r="J151" s="8">
         <f t="shared" si="15"/>
-        <v>17.744801553062985</v>
+        <v>0.15506902502157033</v>
       </c>
       <c r="K151" s="7">
         <f t="shared" si="16"/>
@@ -21535,7 +21535,7 @@
       </c>
       <c r="N151" s="4">
         <f t="shared" si="19"/>
-        <v>17.392472434266327</v>
+        <v>0.10112383375742154</v>
       </c>
       <c r="O151" s="4">
         <f t="shared" si="20"/>
@@ -21551,7 +21551,7 @@
         <v>47</v>
       </c>
       <c r="S151">
-        <v>4100000</v>
+        <v>22700</v>
       </c>
       <c r="T151" s="3">
         <v>12100</v>
@@ -21611,7 +21611,7 @@
       </c>
       <c r="J152" s="8">
         <f t="shared" si="15"/>
-        <v>1710.8882482993197</v>
+        <v>34.017499999999998</v>
       </c>
       <c r="K152" s="7">
         <f t="shared" si="16"/>
@@ -21627,7 +21627,7 @@
       </c>
       <c r="N152" s="4">
         <f t="shared" si="19"/>
-        <v>62.875015625000003</v>
+        <v>1.2500156250000001</v>
       </c>
       <c r="O152" s="4">
         <f t="shared" si="20"/>
@@ -21643,7 +21643,7 @@
         <v>1028</v>
       </c>
       <c r="S152">
-        <v>100600000</v>
+        <v>2000000</v>
       </c>
       <c r="T152" s="3">
         <v>204</v>
@@ -21703,7 +21703,7 @@
       </c>
       <c r="J153" s="8">
         <f t="shared" si="15"/>
-        <v>28.858644918444167</v>
+        <v>0.17232120451693853</v>
       </c>
       <c r="K153" s="7">
         <f t="shared" si="16"/>
@@ -21719,7 +21719,7 @@
       </c>
       <c r="N153" s="4">
         <f t="shared" si="19"/>
-        <v>37.398585365853656</v>
+        <v>0.22297560975609756</v>
       </c>
       <c r="O153" s="4">
         <f t="shared" si="20"/>
@@ -21735,7 +21735,7 @@
         <v>28</v>
       </c>
       <c r="S153">
-        <v>2300000</v>
+        <v>13700</v>
       </c>
       <c r="T153" s="3">
         <v>21</v>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="J154" s="8">
         <f t="shared" si="15"/>
-        <v>8598.2917094017102</v>
+        <v>358.97547008547008</v>
       </c>
       <c r="K154" s="7">
         <f t="shared" si="16"/>
@@ -21811,7 +21811,7 @@
       </c>
       <c r="N154" s="4">
         <f t="shared" si="19"/>
-        <v>62.875006249999998</v>
+        <v>2.6250062500000002</v>
       </c>
       <c r="O154" s="4">
         <f t="shared" si="20"/>
@@ -21827,7 +21827,7 @@
         <v>315</v>
       </c>
       <c r="S154">
-        <v>100600000</v>
+        <v>4200000</v>
       </c>
       <c r="T154" s="3">
         <v>3</v>
@@ -21887,7 +21887,7 @@
       </c>
       <c r="J155" s="8">
         <f t="shared" si="15"/>
-        <v>15.873098688750863</v>
+        <v>8.2898550724637685E-2</v>
       </c>
       <c r="K155" s="7">
         <f t="shared" si="16"/>
@@ -21903,7 +21903,7 @@
       </c>
       <c r="N155" s="4">
         <f t="shared" si="19"/>
-        <v>17.933812865497075</v>
+        <v>9.3656920077972716E-2</v>
       </c>
       <c r="O155" s="4">
         <f t="shared" si="20"/>
@@ -21919,7 +21919,7 @@
         <v>1105</v>
       </c>
       <c r="S155">
-        <v>4600000</v>
+        <v>24000</v>
       </c>
       <c r="T155" s="3">
         <v>1</v>
@@ -21979,7 +21979,7 @@
       </c>
       <c r="J156" s="8">
         <f t="shared" si="15"/>
-        <v>31.081600000000002</v>
+        <v>2.1716000000000002</v>
       </c>
       <c r="K156" s="7">
         <f t="shared" si="16"/>
@@ -21995,7 +21995,7 @@
       </c>
       <c r="N156" s="4">
         <f t="shared" si="19"/>
-        <v>19.923974358974359</v>
+        <v>1.3919230769230768</v>
       </c>
       <c r="O156" s="4">
         <f t="shared" si="20"/>
@@ -22011,7 +22011,7 @@
         <v>437</v>
       </c>
       <c r="S156">
-        <v>310800</v>
+        <v>21700</v>
       </c>
       <c r="T156" s="3">
         <v>2</v>
@@ -22071,7 +22071,7 @@
       </c>
       <c r="J157" s="8">
         <f t="shared" si="15"/>
-        <v>5.6436376210235135</v>
+        <v>7.178423236514523E-3</v>
       </c>
       <c r="K157" s="7">
         <f t="shared" si="16"/>
@@ -22087,7 +22087,7 @@
       </c>
       <c r="N157" s="4">
         <f t="shared" si="19"/>
-        <v>31.146488549618322</v>
+        <v>3.8396946564885494E-2</v>
       </c>
       <c r="O157" s="4">
         <f t="shared" si="20"/>
@@ -22103,7 +22103,7 @@
         <v>11</v>
       </c>
       <c r="S157">
-        <v>408000</v>
+        <v>484</v>
       </c>
       <c r="T157" s="3">
         <v>16</v>
@@ -22163,7 +22163,7 @@
       </c>
       <c r="J158" s="8">
         <f t="shared" si="15"/>
-        <v>18.462564102564102</v>
+        <v>3.274725274725275E-2</v>
       </c>
       <c r="K158" s="7">
         <f t="shared" si="16"/>
@@ -22179,7 +22179,7 @@
       </c>
       <c r="N158" s="4">
         <f t="shared" si="19"/>
-        <v>6.1298416565164437</v>
+        <v>1.5347137637028016E-3</v>
       </c>
       <c r="O158" s="4">
         <f t="shared" si="20"/>
@@ -22195,7 +22195,7 @@
         <v>1776</v>
       </c>
       <c r="S158">
-        <v>503200</v>
+        <v>66</v>
       </c>
       <c r="T158" s="3">
         <v>768</v>
@@ -22255,7 +22255,7 @@
       </c>
       <c r="J159" s="8">
         <f t="shared" si="15"/>
-        <v>6704.7818181818184</v>
+        <v>1.5352272727272727</v>
       </c>
       <c r="K159" s="7">
         <f t="shared" si="16"/>
@@ -22271,7 +22271,7 @@
       </c>
       <c r="N159" s="4">
         <f t="shared" si="19"/>
-        <v>131.40354120267261</v>
+        <v>2.5879732739420937E-2</v>
       </c>
       <c r="O159" s="4">
         <f t="shared" si="20"/>
@@ -22287,7 +22287,7 @@
         <v>7</v>
       </c>
       <c r="S159">
-        <v>5900000</v>
+        <v>1143</v>
       </c>
       <c r="T159" s="3">
         <v>189</v>
@@ -22347,7 +22347,7 @@
       </c>
       <c r="J160" s="8">
         <f t="shared" si="15"/>
-        <v>1.1333390000000001</v>
+        <v>1.1772333333333333E-2</v>
       </c>
       <c r="K160" s="7">
         <f t="shared" si="16"/>
@@ -22363,7 +22363,7 @@
       </c>
       <c r="N160" s="4">
         <f t="shared" si="19"/>
-        <v>26.729677672955976</v>
+        <v>0.27763364779874211</v>
       </c>
       <c r="O160" s="4">
         <f t="shared" si="20"/>
@@ -22379,7 +22379,7 @@
         <v>1319</v>
       </c>
       <c r="S160">
-        <v>3400000</v>
+        <v>35300</v>
       </c>
       <c r="T160" s="3">
         <v>2</v>
@@ -22439,7 +22439,7 @@
       </c>
       <c r="J161" s="8">
         <f t="shared" si="15"/>
-        <v>66.760008400000004</v>
+        <v>0.2163284</v>
       </c>
       <c r="K161" s="7">
         <f t="shared" si="16"/>
@@ -22455,7 +22455,7 @@
       </c>
       <c r="N161" s="4">
         <f t="shared" si="19"/>
-        <v>57.551728965517242</v>
+        <v>0.18648758620689654</v>
       </c>
       <c r="O161" s="4">
         <f t="shared" si="20"/>
@@ -22471,7 +22471,7 @@
         <v>5148</v>
       </c>
       <c r="S161">
-        <v>166900000</v>
+        <v>540800</v>
       </c>
       <c r="T161" s="3">
         <v>7</v>
@@ -22531,7 +22531,7 @@
       </c>
       <c r="J162" s="8">
         <f t="shared" si="15"/>
-        <v>0.64584541666666662</v>
+        <v>1.1291666666666667E-4</v>
       </c>
       <c r="K162" s="7">
         <f t="shared" si="16"/>
@@ -22547,7 +22547,7 @@
       </c>
       <c r="N162" s="4">
         <f t="shared" si="19"/>
-        <v>35.797032332563511</v>
+        <v>5.8545034642032336E-3</v>
       </c>
       <c r="O162" s="4">
         <f t="shared" si="20"/>
@@ -22563,7 +22563,7 @@
         <v>76</v>
       </c>
       <c r="S162">
-        <v>3100000</v>
+        <v>484</v>
       </c>
       <c r="T162" s="3">
         <v>35</v>
@@ -22623,7 +22623,7 @@
       </c>
       <c r="J163" s="8">
         <f t="shared" si="15"/>
-        <v>7272.7395316804405</v>
+        <v>3.7863636363636362</v>
       </c>
       <c r="K163" s="7">
         <f t="shared" si="16"/>
@@ -22639,7 +22639,7 @@
       </c>
       <c r="N163" s="4">
         <f t="shared" si="19"/>
-        <v>87.620356787255233</v>
+        <v>4.5514437437769666E-2</v>
       </c>
       <c r="O163" s="4">
         <f t="shared" si="20"/>
@@ -22655,7 +22655,7 @@
         <v>222</v>
       </c>
       <c r="S163">
-        <v>52800000</v>
+        <v>27400</v>
       </c>
       <c r="T163" s="3">
         <v>62</v>
@@ -22715,7 +22715,7 @@
       </c>
       <c r="J164" s="8">
         <f t="shared" si="15"/>
-        <v>2.3798981818181817</v>
+        <v>3.4928484848484848E-2</v>
       </c>
       <c r="K164" s="7">
         <f t="shared" si="16"/>
@@ -22731,7 +22731,7 @@
       </c>
       <c r="N164" s="4">
         <f t="shared" si="19"/>
-        <v>59.492363636363635</v>
+        <v>0.86812121212121207</v>
       </c>
       <c r="O164" s="4">
         <f t="shared" si="20"/>
@@ -22747,7 +22747,7 @@
         <v>179</v>
       </c>
       <c r="S164">
-        <v>981600</v>
+        <v>14300</v>
       </c>
       <c r="T164" s="3">
         <v>84</v>
@@ -22807,7 +22807,7 @@
       </c>
       <c r="J165" s="8">
         <f t="shared" si="15"/>
-        <v>2752.5642179487181</v>
+        <v>1.2642179487179488</v>
       </c>
       <c r="K165" s="7">
         <f t="shared" si="16"/>
@@ -22823,7 +22823,7 @@
       </c>
       <c r="N165" s="4">
         <f t="shared" si="19"/>
-        <v>65.060607575757572</v>
+        <v>2.9880303030303031E-2</v>
       </c>
       <c r="O165" s="4">
         <f t="shared" si="20"/>
@@ -22839,7 +22839,7 @@
         <v>576</v>
       </c>
       <c r="S165">
-        <v>214700000</v>
+        <v>98600</v>
       </c>
       <c r="T165" s="3">
         <v>4</v>
@@ -22899,7 +22899,7 @@
       </c>
       <c r="J166" s="8">
         <f t="shared" si="15"/>
-        <v>196.2901114881241</v>
+        <v>2.4117789626757151</v>
       </c>
       <c r="K166" s="7">
         <f t="shared" si="16"/>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="N166" s="4">
         <f t="shared" si="19"/>
-        <v>84.665925925925933</v>
+        <v>1.5978835978835978E-2</v>
       </c>
       <c r="O166" s="4">
         <f t="shared" si="20"/>
@@ -22931,7 +22931,7 @@
         <v>1028</v>
       </c>
       <c r="S166">
-        <v>1600000</v>
+        <v>116</v>
       </c>
       <c r="T166" s="3">
         <v>19600</v>
@@ -22991,7 +22991,7 @@
       </c>
       <c r="J167" s="8">
         <f t="shared" si="15"/>
-        <v>0.11074469696969697</v>
+        <v>8.9393939393939386E-6</v>
       </c>
       <c r="K167" s="7">
         <f t="shared" si="16"/>
@@ -23007,7 +23007,7 @@
       </c>
       <c r="N167" s="4">
         <f t="shared" si="19"/>
-        <v>36.914242424242424</v>
+        <v>2.3232323232323234E-3</v>
       </c>
       <c r="O167" s="4">
         <f t="shared" si="20"/>
@@ -23023,7 +23023,7 @@
         <v>2588</v>
       </c>
       <c r="S167">
-        <v>730900</v>
+        <v>44</v>
       </c>
       <c r="T167" s="3">
         <v>13</v>
@@ -23083,7 +23083,7 @@
       </c>
       <c r="J168" s="8">
         <f t="shared" si="15"/>
-        <v>89.726469615543607</v>
+        <v>3.2066969822240596E-2</v>
       </c>
       <c r="K168" s="7">
         <f t="shared" si="16"/>
@@ -23099,7 +23099,7 @@
       </c>
       <c r="N168" s="4">
         <f t="shared" si="19"/>
-        <v>50.454003720065103</v>
+        <v>7.4192048360846316E-3</v>
       </c>
       <c r="O168" s="4">
         <f t="shared" si="20"/>
@@ -23115,7 +23115,7 @@
         <v>806</v>
       </c>
       <c r="S168">
-        <v>21700000</v>
+        <v>2924</v>
       </c>
       <c r="T168" s="3">
         <v>4566</v>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="J169" s="8">
         <f t="shared" si="15"/>
-        <v>2.2582265299583466</v>
+        <v>1.6900032041012494E-2</v>
       </c>
       <c r="K169" s="7">
         <f t="shared" si="16"/>
@@ -23191,7 +23191,7 @@
       </c>
       <c r="N169" s="4">
         <f t="shared" si="19"/>
-        <v>151.51282051282053</v>
+        <v>0.15114140430596126</v>
       </c>
       <c r="O169" s="4">
         <f t="shared" si="20"/>
@@ -23207,7 +23207,7 @@
         <v>4146</v>
       </c>
       <c r="S169">
-        <v>1400000</v>
+        <v>964</v>
       </c>
       <c r="T169" s="3">
         <v>9152</v>
@@ -23267,7 +23267,7 @@
       </c>
       <c r="J170" s="8">
         <f t="shared" si="15"/>
-        <v>2769.6097391304347</v>
+        <v>3.4749565217391303</v>
       </c>
       <c r="K170" s="7">
         <f t="shared" si="16"/>
@@ -23283,7 +23283,7 @@
       </c>
       <c r="N170" s="4">
         <f t="shared" si="19"/>
-        <v>110.49456895056375</v>
+        <v>0.13706678230702515</v>
       </c>
       <c r="O170" s="4">
         <f t="shared" si="20"/>
@@ -23299,7 +23299,7 @@
         <v>168</v>
       </c>
       <c r="S170">
-        <v>63700000</v>
+        <v>78900</v>
       </c>
       <c r="T170" s="3">
         <v>905</v>
@@ -23359,7 +23359,7 @@
       </c>
       <c r="J171" s="8">
         <f t="shared" si="15"/>
-        <v>119.41343956521739</v>
+        <v>4.1874347826086955E-2</v>
       </c>
       <c r="K171" s="7">
         <f t="shared" si="16"/>
@@ -23375,7 +23375,7 @@
       </c>
       <c r="N171" s="4">
         <f t="shared" si="19"/>
-        <v>48.184224298245617</v>
+        <v>1.6750614035087718E-2</v>
       </c>
       <c r="O171" s="4">
         <f t="shared" si="20"/>
@@ -23391,7 +23391,7 @@
         <v>497</v>
       </c>
       <c r="S171">
-        <v>549300000</v>
+        <v>190800</v>
       </c>
       <c r="T171" s="3">
         <v>1665</v>
@@ -23451,7 +23451,7 @@
       </c>
       <c r="J172" s="8">
         <f t="shared" si="15"/>
-        <v>0.29539454545454547</v>
+        <v>7.1818181818181817E-5</v>
       </c>
       <c r="K172" s="7">
         <f t="shared" si="16"/>
@@ -23467,7 +23467,7 @@
       </c>
       <c r="N172" s="4">
         <f t="shared" si="19"/>
-        <v>164.35103692463329</v>
+        <v>3.3889731917046029E-2</v>
       </c>
       <c r="O172" s="4">
         <f t="shared" si="20"/>
@@ -23483,7 +23483,7 @@
         <v>696</v>
       </c>
       <c r="S172">
-        <v>324900</v>
+        <v>45</v>
       </c>
       <c r="T172" s="3">
         <v>12</v>
@@ -23543,7 +23543,7 @@
       </c>
       <c r="J173" s="8">
         <f t="shared" si="15"/>
-        <v>0.18877911646586346</v>
+        <v>1.461847389558233E-3</v>
       </c>
       <c r="K173" s="7">
         <f t="shared" si="16"/>
@@ -23559,7 +23559,7 @@
       </c>
       <c r="N173" s="4">
         <f t="shared" si="19"/>
-        <v>27.184597523219814</v>
+        <v>0.10913312693498452</v>
       </c>
       <c r="O173" s="4">
         <f t="shared" si="20"/>
@@ -23575,7 +23575,7 @@
         <v>387</v>
       </c>
       <c r="S173">
-        <v>70200</v>
+        <v>237</v>
       </c>
       <c r="T173" s="3">
         <v>264</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="J174" s="8">
         <f t="shared" si="15"/>
-        <v>0.1375339366515837</v>
+        <v>0.12194570135746606</v>
       </c>
       <c r="K174" s="7">
         <f t="shared" si="16"/>
@@ -23651,7 +23651,7 @@
       </c>
       <c r="N174" s="4">
         <f t="shared" si="19"/>
-        <v>57.466666666666669</v>
+        <v>50.904761904761905</v>
       </c>
       <c r="O174" s="4">
         <f t="shared" si="20"/>
@@ -23667,7 +23667,7 @@
         <v>1268</v>
       </c>
       <c r="S174">
-        <v>6027</v>
+        <v>5338</v>
       </c>
       <c r="T174" s="3">
         <v>45</v>
@@ -23727,7 +23727,7 @@
       </c>
       <c r="J175" s="8">
         <f t="shared" si="15"/>
-        <v>6.6113530135301355</v>
+        <v>5.7656826568265682E-4</v>
       </c>
       <c r="K175" s="7">
         <f t="shared" si="16"/>
@@ -23743,7 +23743,7 @@
       </c>
       <c r="N175" s="4">
         <f t="shared" si="19"/>
-        <v>623.91279744631458</v>
+        <v>5.1944283226929774E-2</v>
       </c>
       <c r="O175" s="4">
         <f t="shared" si="20"/>
@@ -23759,7 +23759,7 @@
         <v>334</v>
       </c>
       <c r="S175">
-        <v>4300000</v>
+        <v>351</v>
       </c>
       <c r="T175" s="3">
         <v>17</v>
@@ -23819,7 +23819,7 @@
       </c>
       <c r="J176" s="8">
         <f t="shared" si="15"/>
-        <v>0.3482555</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="K176" s="7">
         <f t="shared" si="16"/>
@@ -23835,7 +23835,7 @@
       </c>
       <c r="N176" s="4">
         <f t="shared" si="19"/>
-        <v>213.78330263965623</v>
+        <v>2.7931246163290364E-2</v>
       </c>
       <c r="O176" s="4">
         <f t="shared" si="20"/>
@@ -23851,7 +23851,7 @@
         <v>967</v>
       </c>
       <c r="S176">
-        <v>696500</v>
+        <v>85</v>
       </c>
       <c r="T176" s="3">
         <v>5</v>
@@ -23911,7 +23911,7 @@
       </c>
       <c r="J177" s="8">
         <f t="shared" si="15"/>
-        <v>33.481106929665195</v>
+        <v>0.1294329094212302</v>
       </c>
       <c r="K177" s="7">
         <f t="shared" si="16"/>
@@ -23927,7 +23927,7 @@
       </c>
       <c r="N177" s="4">
         <f t="shared" si="19"/>
-        <v>17.200047333333334</v>
+        <v>6.6180666666666665E-2</v>
       </c>
       <c r="O177" s="4">
         <f t="shared" si="20"/>
@@ -23943,7 +23943,7 @@
         <v>1880</v>
       </c>
       <c r="S177">
-        <v>25800000</v>
+        <v>99200</v>
       </c>
       <c r="T177" s="3">
         <v>470</v>
@@ -24003,7 +24003,7 @@
       </c>
       <c r="J178" s="8">
         <f t="shared" si="15"/>
-        <v>139.97572078907436</v>
+        <v>0.33687405159332323</v>
       </c>
       <c r="K178" s="7">
         <f t="shared" si="16"/>
@@ -24019,7 +24019,7 @@
       </c>
       <c r="N178" s="4">
         <f t="shared" si="19"/>
-        <v>84.521242995415179</v>
+        <v>0.1403973509933775</v>
       </c>
       <c r="O178" s="4">
         <f t="shared" si="20"/>
@@ -24035,7 +24035,7 @@
         <v>170</v>
       </c>
       <c r="S178">
-        <v>829500</v>
+        <v>1302</v>
       </c>
       <c r="T178" s="3">
         <v>620</v>
@@ -24095,7 +24095,7 @@
       </c>
       <c r="J179" s="8">
         <f t="shared" si="15"/>
-        <v>19.300516999999999</v>
+        <v>7.3994777777777784E-2</v>
       </c>
       <c r="K179" s="7">
         <f t="shared" si="16"/>
@@ -24111,7 +24111,7 @@
       </c>
       <c r="N179" s="4">
         <f t="shared" si="19"/>
-        <v>51.088500588235291</v>
+        <v>0.19476529411764706</v>
       </c>
       <c r="O179" s="4">
         <f t="shared" si="20"/>
@@ -24127,7 +24127,7 @@
         <v>719</v>
       </c>
       <c r="S179">
-        <v>173700000</v>
+        <v>661300</v>
       </c>
       <c r="T179" s="3">
         <v>3751</v>
@@ -24187,7 +24187,7 @@
       </c>
       <c r="J180" s="8">
         <f t="shared" si="15"/>
-        <v>2.9047661904761903</v>
+        <v>3.31E-3</v>
       </c>
       <c r="K180" s="7">
         <f t="shared" si="16"/>
@@ -24203,7 +24203,7 @@
       </c>
       <c r="N180" s="4">
         <f t="shared" si="19"/>
-        <v>31.234029697900667</v>
+        <v>3.5576036866359448E-2</v>
       </c>
       <c r="O180" s="4">
         <f t="shared" si="20"/>
@@ -24219,7 +24219,7 @@
         <v>414</v>
       </c>
       <c r="S180">
-        <v>6100000</v>
+        <v>6942</v>
       </c>
       <c r="T180" s="3">
         <v>3</v>
@@ -24279,7 +24279,7 @@
       </c>
       <c r="J181" s="8">
         <f t="shared" si="15"/>
-        <v>1091.2086513994911</v>
+        <v>0.87640857869865507</v>
       </c>
       <c r="K181" s="7">
         <f t="shared" si="16"/>
@@ -24295,7 +24295,7 @@
       </c>
       <c r="N181" s="4">
         <f t="shared" si="19"/>
-        <v>647.17752372735117</v>
+        <v>0.17493528904227781</v>
       </c>
       <c r="O181" s="4">
         <f t="shared" si="20"/>
@@ -24311,7 +24311,7 @@
         <v>41</v>
       </c>
       <c r="S181">
-        <v>3000000</v>
+        <v>496</v>
       </c>
       <c r="T181" s="3">
         <v>1600</v>
@@ -24371,7 +24371,7 @@
       </c>
       <c r="J182" s="8">
         <f t="shared" si="15"/>
-        <v>243.7505625</v>
+        <v>0.18174999999999999</v>
       </c>
       <c r="K182" s="7">
         <f t="shared" si="16"/>
@@ -24387,7 +24387,7 @@
       </c>
       <c r="N182" s="4">
         <f t="shared" si="19"/>
-        <v>108.93860335195531</v>
+        <v>8.1033519553072628E-2</v>
       </c>
       <c r="O182" s="4">
         <f t="shared" si="20"/>
@@ -24403,7 +24403,7 @@
         <v>4503</v>
       </c>
       <c r="S182">
-        <v>3900000</v>
+        <v>2899</v>
       </c>
       <c r="T182" s="3">
         <v>7</v>
@@ -24463,7 +24463,7 @@
       </c>
       <c r="J183" s="8">
         <f t="shared" si="15"/>
-        <v>16.950088517956498</v>
+        <v>5.6550328780981289E-3</v>
       </c>
       <c r="K183" s="7">
         <f t="shared" si="16"/>
@@ -24479,7 +24479,7 @@
       </c>
       <c r="N183" s="4">
         <f t="shared" si="19"/>
-        <v>300.4493721973094</v>
+        <v>8.6098654708520184E-3</v>
       </c>
       <c r="O183" s="4">
         <f t="shared" si="20"/>
@@ -24495,7 +24495,7 @@
         <v>339</v>
       </c>
       <c r="S183">
-        <v>6700000</v>
+        <v>171</v>
       </c>
       <c r="T183" s="3">
         <v>2044</v>
@@ -24555,7 +24555,7 @@
       </c>
       <c r="J184" s="8">
         <f t="shared" si="15"/>
-        <v>0.53848076923076926</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="K184" s="7">
         <f t="shared" si="16"/>
@@ -24571,7 +24571,7 @@
       </c>
       <c r="N184" s="4">
         <f t="shared" si="19"/>
-        <v>15.730674157303371</v>
+        <v>4.3887640449438201E-2</v>
       </c>
       <c r="O184" s="4">
         <f t="shared" si="20"/>
@@ -24587,7 +24587,7 @@
         <v>567</v>
       </c>
       <c r="S184">
-        <v>1400000</v>
+        <v>3876</v>
       </c>
       <c r="T184" s="3">
         <v>20</v>
@@ -24647,7 +24647,7 @@
       </c>
       <c r="J185" s="8">
         <f t="shared" si="15"/>
-        <v>9.4501604938271602E-2</v>
+        <v>7.8843209876543214E-3</v>
       </c>
       <c r="K185" s="7">
         <f t="shared" si="16"/>
@@ -24663,7 +24663,7 @@
       </c>
       <c r="N185" s="4">
         <f t="shared" si="19"/>
-        <v>17.841748251748253</v>
+        <v>1.4874358974358974</v>
       </c>
       <c r="O185" s="4">
         <f t="shared" si="20"/>
@@ -24679,7 +24679,7 @@
         <v>967</v>
       </c>
       <c r="S185">
-        <v>765400</v>
+        <v>63800</v>
       </c>
       <c r="T185" s="3">
         <v>52</v>
@@ -24739,7 +24739,7 @@
       </c>
       <c r="J186" s="8">
         <f t="shared" si="15"/>
-        <v>18.116485507246377</v>
+        <v>2.5018115942028987E-2</v>
       </c>
       <c r="K186" s="7">
         <f t="shared" si="16"/>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="N186" s="4">
         <f t="shared" si="19"/>
-        <v>67.114362416107383</v>
+        <v>9.0939597315436244E-2</v>
       </c>
       <c r="O186" s="4">
         <f t="shared" si="20"/>
@@ -24771,7 +24771,7 @@
         <v>33</v>
       </c>
       <c r="S186">
-        <v>1000000</v>
+        <v>1351</v>
       </c>
       <c r="T186" s="3">
         <v>26</v>
@@ -24831,7 +24831,7 @@
       </c>
       <c r="J187" s="8">
         <f t="shared" si="15"/>
-        <v>153.32967567567567</v>
+        <v>0.43598198198198196</v>
       </c>
       <c r="K187" s="7">
         <f t="shared" si="16"/>
@@ -24847,7 +24847,7 @@
       </c>
       <c r="N187" s="4">
         <f t="shared" si="19"/>
-        <v>24.897241581259152</v>
+        <v>4.9218155197657397E-2</v>
       </c>
       <c r="O187" s="4">
         <f t="shared" si="20"/>
@@ -24863,7 +24863,7 @@
         <v>188</v>
       </c>
       <c r="S187">
-        <v>8500000</v>
+        <v>14400</v>
       </c>
       <c r="T187" s="3">
         <v>7389</v>
@@ -24923,7 +24923,7 @@
       </c>
       <c r="J188" s="8">
         <f t="shared" si="15"/>
-        <v>1506.2484153846153</v>
+        <v>0.10983076923076923</v>
       </c>
       <c r="K188" s="7">
         <f t="shared" si="16"/>
@@ -24939,7 +24939,7 @@
       </c>
       <c r="N188" s="4">
         <f t="shared" si="19"/>
-        <v>89.000166363636367</v>
+        <v>1.0681818181818182E-3</v>
       </c>
       <c r="O188" s="4">
         <f t="shared" si="20"/>
@@ -24955,7 +24955,7 @@
         <v>49</v>
       </c>
       <c r="S188">
-        <v>97900000</v>
+        <v>992</v>
       </c>
       <c r="T188" s="3">
         <v>5964</v>
@@ -25015,7 +25015,7 @@
       </c>
       <c r="J189" s="8">
         <f t="shared" si="15"/>
-        <v>217.96889241133346</v>
+        <v>0.79017237963146425</v>
       </c>
       <c r="K189" s="7">
         <f t="shared" si="16"/>
@@ -25031,7 +25031,7 @@
       </c>
       <c r="N189" s="4">
         <f t="shared" si="19"/>
-        <v>32.641483679525223</v>
+        <v>0.11623145400593472</v>
       </c>
       <c r="O189" s="4">
         <f t="shared" si="20"/>
@@ -25047,7 +25047,7 @@
         <v>21</v>
       </c>
       <c r="S189">
-        <v>1100000</v>
+        <v>3899</v>
       </c>
       <c r="T189" s="3">
         <v>71</v>
@@ -25107,7 +25107,7 @@
       </c>
       <c r="J190" s="8">
         <f t="shared" si="15"/>
-        <v>2308.8757843137255</v>
+        <v>0.77284313725490195</v>
       </c>
       <c r="K190" s="7">
         <f t="shared" si="16"/>
@@ -25123,7 +25123,7 @@
       </c>
       <c r="N190" s="4">
         <f t="shared" si="19"/>
-        <v>53.523252045454548</v>
+        <v>1.7229318181818182E-2</v>
       </c>
       <c r="O190" s="4">
         <f t="shared" si="20"/>
@@ -25139,7 +25139,7 @@
         <v>236</v>
       </c>
       <c r="S190">
-        <v>235500000</v>
+        <v>73500</v>
       </c>
       <c r="T190" s="3">
         <v>3021</v>
@@ -25199,7 +25199,7 @@
       </c>
       <c r="J191" s="8">
         <f t="shared" si="15"/>
-        <v>5.4175824175824179</v>
+        <v>8.9769230769230768E-4</v>
       </c>
       <c r="K191" s="7">
         <f t="shared" si="16"/>
@@ -25215,7 +25215,7 @@
       </c>
       <c r="N191" s="4">
         <f t="shared" si="19"/>
-        <v>72.181551976573942</v>
+        <v>1.1960468521229868E-2</v>
       </c>
       <c r="O191" s="4">
         <f t="shared" si="20"/>
@@ -25231,7 +25231,7 @@
         <v>764</v>
       </c>
       <c r="S191">
-        <v>49300000</v>
+        <v>8169</v>
       </c>
       <c r="T191" s="11">
         <v>0</v>
@@ -25291,7 +25291,7 @@
       </c>
       <c r="J192" s="8">
         <f t="shared" si="15"/>
-        <v>898.60381899871629</v>
+        <v>6.0332156611039798</v>
       </c>
       <c r="K192" s="7">
         <f t="shared" si="16"/>
@@ -25307,7 +25307,7 @@
       </c>
       <c r="N192" s="4">
         <f t="shared" si="19"/>
-        <v>95.077113752122244</v>
+        <v>0.63738539898132429</v>
       </c>
       <c r="O192" s="4">
         <f t="shared" si="20"/>
@@ -25323,7 +25323,7 @@
         <v>112</v>
       </c>
       <c r="S192">
-        <v>5600000</v>
+        <v>37500</v>
       </c>
       <c r="T192" s="3">
         <v>57</v>
@@ -25383,7 +25383,7 @@
       </c>
       <c r="J193" s="8">
         <f t="shared" si="15"/>
-        <v>770218.24582798465</v>
+        <v>144.75417201540438</v>
       </c>
       <c r="K193" s="7">
         <f t="shared" si="16"/>
@@ -25399,7 +25399,7 @@
       </c>
       <c r="N193" s="4">
         <f t="shared" si="19"/>
-        <v>71.428572142857149</v>
+        <v>1.3423333333333334E-2</v>
       </c>
       <c r="O193" s="4">
         <f t="shared" si="20"/>
@@ -25415,7 +25415,7 @@
         <v>741</v>
       </c>
       <c r="S193">
-        <v>1200000000</v>
+        <v>225500</v>
       </c>
       <c r="T193" s="3">
         <v>15</v>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="J194" s="8">
         <f t="shared" si="15"/>
-        <v>5159.0165073529415</v>
+        <v>1.7030882352941177</v>
       </c>
       <c r="K194" s="7">
         <f t="shared" si="16"/>
@@ -25491,7 +25491,7 @@
       </c>
       <c r="N194" s="4">
         <f t="shared" si="19"/>
-        <v>110.05888352941176</v>
+        <v>3.6197254901960782E-2</v>
       </c>
       <c r="O194" s="4">
         <f t="shared" si="20"/>
@@ -25507,7 +25507,7 @@
         <v>38</v>
       </c>
       <c r="S194">
-        <v>561300000</v>
+        <v>184300</v>
       </c>
       <c r="T194" s="3">
         <v>690</v>
@@ -25567,7 +25567,7 @@
       </c>
       <c r="J195" s="8">
         <f t="shared" ref="J195:J258" si="22">IFERROR((S195+T195+U195)/V195,"")</f>
-        <v>15.608827610128339</v>
+        <v>3.6801942421089144E-3</v>
       </c>
       <c r="K195" s="7">
         <f t="shared" ref="K195:K258" si="23">IFERROR(U195/V195,"")</f>
@@ -25583,7 +25583,7 @@
       </c>
       <c r="N195" s="4">
         <f t="shared" ref="N195:N258" si="26">IFERROR((S195+U195)/Q195,"")</f>
-        <v>32.120064239828693</v>
+        <v>7.5446109921484652E-3</v>
       </c>
       <c r="O195" s="4">
         <f t="shared" ref="O195:O258" si="27">IFERROR(100/(L195+1),"")</f>
@@ -25599,7 +25599,7 @@
         <v>91</v>
       </c>
       <c r="S195">
-        <v>4500000</v>
+        <v>1036</v>
       </c>
       <c r="T195" s="3">
         <v>4</v>
@@ -25659,7 +25659,7 @@
       </c>
       <c r="J196" s="8">
         <f t="shared" si="22"/>
-        <v>4743.9794277108431</v>
+        <v>1.3499096385542169</v>
       </c>
       <c r="K196" s="7">
         <f t="shared" si="23"/>
@@ -25675,7 +25675,7 @@
       </c>
       <c r="N196" s="4">
         <f t="shared" si="26"/>
-        <v>75.000010952380947</v>
+        <v>2.1296666666666665E-2</v>
       </c>
       <c r="O196" s="4">
         <f t="shared" si="27"/>
@@ -25691,7 +25691,7 @@
         <v>153</v>
       </c>
       <c r="S196">
-        <v>157500000</v>
+        <v>44700</v>
       </c>
       <c r="T196" s="3">
         <v>94</v>
@@ -25751,7 +25751,7 @@
       </c>
       <c r="J197" s="8">
         <f t="shared" si="22"/>
-        <v>9.434141509433962</v>
+        <v>4.9685534591194973E-4</v>
       </c>
       <c r="K197" s="7">
         <f t="shared" si="23"/>
@@ -25767,7 +25767,7 @@
       </c>
       <c r="N197" s="4">
         <f t="shared" si="26"/>
-        <v>111.52468401486989</v>
+        <v>4.275092936802974E-3</v>
       </c>
       <c r="O197" s="4">
         <f t="shared" si="27"/>
@@ -25783,7 +25783,7 @@
         <v>2652</v>
       </c>
       <c r="S197">
-        <v>3000000</v>
+        <v>101</v>
       </c>
       <c r="T197" s="3">
         <v>43</v>
@@ -25843,7 +25843,7 @@
       </c>
       <c r="J198" s="8">
         <f t="shared" si="22"/>
-        <v>9559.4709897610919</v>
+        <v>42.406143344709896</v>
       </c>
       <c r="K198" s="7">
         <f t="shared" si="23"/>
@@ -25859,7 +25859,7 @@
       </c>
       <c r="N198" s="4">
         <f t="shared" si="26"/>
-        <v>252.28846846846847</v>
+        <v>1.0722522522522522</v>
       </c>
       <c r="O198" s="4">
         <f t="shared" si="27"/>
@@ -25875,7 +25875,7 @@
         <v>86</v>
       </c>
       <c r="S198">
-        <v>2800000</v>
+        <v>11500</v>
       </c>
       <c r="T198" s="3">
         <v>523</v>
@@ -25935,7 +25935,7 @@
       </c>
       <c r="J199" s="8">
         <f t="shared" si="22"/>
-        <v>0.35680110837438422</v>
+        <v>9.7872536945812813E-2</v>
       </c>
       <c r="K199" s="7">
         <f t="shared" si="23"/>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="N199" s="4">
         <f t="shared" si="26"/>
-        <v>47.932937181663839</v>
+        <v>12.236842105263158</v>
       </c>
       <c r="O199" s="4">
         <f t="shared" si="27"/>
@@ -25967,7 +25967,7 @@
         <v>152</v>
       </c>
       <c r="S199">
-        <v>112800</v>
+        <v>28700</v>
       </c>
       <c r="T199" s="3">
         <v>2959</v>
@@ -26027,7 +26027,7 @@
       </c>
       <c r="J200" s="8">
         <f t="shared" si="22"/>
-        <v>761.09630226932381</v>
+        <v>0.9133740352493952</v>
       </c>
       <c r="K200" s="7">
         <f t="shared" si="23"/>
@@ -26043,7 +26043,7 @@
       </c>
       <c r="N200" s="4">
         <f t="shared" si="26"/>
-        <v>36.127520525451558</v>
+        <v>7.3891625615763543E-3</v>
       </c>
       <c r="O200" s="4">
         <f t="shared" si="27"/>
@@ -26059,7 +26059,7 @@
         <v>272</v>
       </c>
       <c r="S200">
-        <v>6600000</v>
+        <v>852</v>
       </c>
       <c r="T200" s="3">
         <v>6579</v>
@@ -26119,7 +26119,7 @@
       </c>
       <c r="J201" s="8">
         <f t="shared" si="22"/>
-        <v>123.25180944055944</v>
+        <v>3.2954545454545454E-3</v>
       </c>
       <c r="K201" s="7">
         <f t="shared" si="23"/>
@@ -26135,7 +26135,7 @@
       </c>
       <c r="N201" s="4">
         <f t="shared" si="26"/>
-        <v>44.39547386649874</v>
+        <v>1.1728589420654911E-3</v>
       </c>
       <c r="O201" s="4">
         <f t="shared" si="27"/>
@@ -26151,7 +26151,7 @@
         <v>62</v>
       </c>
       <c r="S201">
-        <v>28200000</v>
+        <v>740</v>
       </c>
       <c r="T201" s="3">
         <v>9</v>
@@ -26211,7 +26211,7 @@
       </c>
       <c r="J202" s="8">
         <f t="shared" si="22"/>
-        <v>309.03413400758535</v>
+        <v>0.81949712038207612</v>
       </c>
       <c r="K202" s="7">
         <f t="shared" si="23"/>
@@ -26227,7 +26227,7 @@
       </c>
       <c r="N202" s="4">
         <f t="shared" si="26"/>
-        <v>247.91627225602886</v>
+        <v>0.65686274509803921</v>
       </c>
       <c r="O202" s="4">
         <f t="shared" si="27"/>
@@ -26243,7 +26243,7 @@
         <v>68</v>
       </c>
       <c r="S202">
-        <v>2200000</v>
+        <v>5820</v>
       </c>
       <c r="T202" s="3">
         <v>5</v>
@@ -26303,7 +26303,7 @@
       </c>
       <c r="J203" s="8">
         <f t="shared" si="22"/>
-        <v>2.7867335714285715</v>
+        <v>1.3207142857142857E-3</v>
       </c>
       <c r="K203" s="7">
         <f t="shared" si="23"/>
@@ -26319,7 +26319,7 @@
       </c>
       <c r="N203" s="4">
         <f t="shared" si="26"/>
-        <v>15.972817362817363</v>
+        <v>4.0294840294840296E-3</v>
       </c>
       <c r="O203" s="4">
         <f t="shared" si="27"/>
@@ -26335,7 +26335,7 @@
         <v>1286</v>
       </c>
       <c r="S203">
-        <v>3900000</v>
+        <v>422</v>
       </c>
       <c r="T203" s="3">
         <v>865</v>
@@ -26395,7 +26395,7 @@
       </c>
       <c r="J204" s="8">
         <f t="shared" si="22"/>
-        <v>23.741809116809115</v>
+        <v>3.6918328584995254E-2</v>
       </c>
       <c r="K204" s="7">
         <f t="shared" si="23"/>
@@ -26411,7 +26411,7 @@
       </c>
       <c r="N204" s="4">
         <f t="shared" si="26"/>
-        <v>22.099498342541438</v>
+        <v>3.4304972375690607E-2</v>
       </c>
       <c r="O204" s="4">
         <f t="shared" si="27"/>
@@ -26427,7 +26427,7 @@
         <v>463</v>
       </c>
       <c r="S204">
-        <v>10000000</v>
+        <v>15500</v>
       </c>
       <c r="T204" s="3">
         <v>27</v>
@@ -26487,7 +26487,7 @@
       </c>
       <c r="J205" s="8">
         <f t="shared" si="22"/>
-        <v>106.55816393442623</v>
+        <v>8.0409836065573771E-3</v>
       </c>
       <c r="K205" s="7">
         <f t="shared" si="23"/>
@@ -26503,7 +26503,7 @@
       </c>
       <c r="N205" s="4">
         <f t="shared" si="26"/>
-        <v>37.956265693430659</v>
+        <v>2.6452554744525549E-3</v>
       </c>
       <c r="O205" s="4">
         <f t="shared" si="27"/>
@@ -26519,7 +26519,7 @@
         <v>2265</v>
       </c>
       <c r="S205">
-        <v>13000000</v>
+        <v>885</v>
       </c>
       <c r="T205" s="3">
         <v>75</v>
@@ -26579,7 +26579,7 @@
       </c>
       <c r="J206" s="8">
         <f t="shared" si="22"/>
-        <v>126.78955357142857</v>
+        <v>8.0357142857142849E-3</v>
       </c>
       <c r="K206" s="7">
         <f t="shared" si="23"/>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="N206" s="4">
         <f t="shared" si="26"/>
-        <v>47.843888140161724</v>
+        <v>1.8059299191374664E-3</v>
       </c>
       <c r="O206" s="4">
         <f t="shared" si="27"/>
@@ -26611,7 +26611,7 @@
         <v>1776</v>
       </c>
       <c r="S206">
-        <v>7100000</v>
+        <v>235</v>
       </c>
       <c r="T206" s="3">
         <v>182</v>
@@ -26671,7 +26671,7 @@
       </c>
       <c r="J207" s="8">
         <f t="shared" si="22"/>
-        <v>3.4773520898460113</v>
+        <v>1.9322681486627302E-2</v>
       </c>
       <c r="K207" s="7">
         <f t="shared" si="23"/>
@@ -26687,7 +26687,7 @@
       </c>
       <c r="N207" s="4">
         <f t="shared" si="26"/>
-        <v>35.256462984723854</v>
+        <v>0.16010575793184489</v>
       </c>
       <c r="O207" s="4">
         <f t="shared" si="27"/>
@@ -26703,7 +26703,7 @@
         <v>270</v>
       </c>
       <c r="S207">
-        <v>3000000</v>
+        <v>13300</v>
       </c>
       <c r="T207" s="3">
         <v>3064</v>
@@ -26763,7 +26763,7 @@
       </c>
       <c r="J208" s="8">
         <f t="shared" si="22"/>
-        <v>0.58570307692307688</v>
+        <v>8.8423076923076927E-3</v>
       </c>
       <c r="K208" s="7">
         <f t="shared" si="23"/>
@@ -26779,7 +26779,7 @@
       </c>
       <c r="N208" s="4">
         <f t="shared" si="26"/>
-        <v>44.209647058823528</v>
+        <v>9.6764705882352947E-2</v>
       </c>
       <c r="O208" s="4">
         <f t="shared" si="27"/>
@@ -26795,7 +26795,7 @@
         <v>210</v>
       </c>
       <c r="S208">
-        <v>1500000</v>
+        <v>162</v>
       </c>
       <c r="T208" s="3">
         <v>19700</v>
@@ -26852,7 +26852,7 @@
       </c>
       <c r="J209" s="8">
         <f t="shared" si="22"/>
-        <v>7991.1858037578286</v>
+        <v>1.8909765715611226</v>
       </c>
       <c r="K209" s="7">
         <f t="shared" si="23"/>
@@ -26868,7 +26868,7 @@
       </c>
       <c r="N209" s="4">
         <f t="shared" si="26"/>
-        <v>62.636365454545455</v>
+        <v>1.482E-2</v>
       </c>
       <c r="O209" s="4">
         <f t="shared" si="27"/>
@@ -26884,7 +26884,7 @@
         <v>331</v>
       </c>
       <c r="S209">
-        <v>68900000</v>
+        <v>16300</v>
       </c>
       <c r="T209" s="3">
         <v>2</v>
@@ -26941,7 +26941,7 @@
       </c>
       <c r="J210" s="8">
         <f t="shared" si="22"/>
-        <v>348.35247252747251</v>
+        <v>3.668131868131868E-2</v>
       </c>
       <c r="K210" s="7">
         <f t="shared" si="23"/>
@@ -26957,7 +26957,7 @@
       </c>
       <c r="N210" s="4">
         <f t="shared" si="26"/>
-        <v>64.378600731112911</v>
+        <v>6.6734362307067424E-3</v>
       </c>
       <c r="O210" s="4">
         <f t="shared" si="27"/>
@@ -26973,7 +26973,7 @@
         <v>237</v>
       </c>
       <c r="S210">
-        <v>31700000</v>
+        <v>3263</v>
       </c>
       <c r="T210" s="3">
         <v>52</v>
@@ -27030,7 +27030,7 @@
       </c>
       <c r="J211" s="8">
         <f t="shared" si="22"/>
-        <v>2304.9651300236405</v>
+        <v>3.7234042553191488E-2</v>
       </c>
       <c r="K211" s="7">
         <f t="shared" si="23"/>
@@ -27046,7 +27046,7 @@
       </c>
       <c r="N211" s="4">
         <f t="shared" si="26"/>
-        <v>106.5574043715847</v>
+        <v>1.7213114754098362E-3</v>
       </c>
       <c r="O211" s="4">
         <f t="shared" si="27"/>
@@ -27062,7 +27062,7 @@
         <v>463</v>
       </c>
       <c r="S211">
-        <v>19500000</v>
+        <v>310</v>
       </c>
       <c r="T211" s="3">
         <v>0</v>
@@ -27122,7 +27122,7 @@
       </c>
       <c r="J212" s="8">
         <f t="shared" si="22"/>
-        <v>526.42870000000005</v>
+        <v>0.239375</v>
       </c>
       <c r="K212" s="7">
         <f t="shared" si="23"/>
@@ -27138,7 +27138,7 @@
       </c>
       <c r="N212" s="4">
         <f t="shared" si="26"/>
-        <v>64.472122511485452</v>
+        <v>7.8866768759571215E-3</v>
       </c>
       <c r="O212" s="4">
         <f t="shared" si="27"/>
@@ -27154,7 +27154,7 @@
         <v>5643</v>
       </c>
       <c r="S212">
-        <v>42100000</v>
+        <v>4854</v>
       </c>
       <c r="T212" s="3">
         <v>14000</v>
@@ -27214,7 +27214,7 @@
       </c>
       <c r="J213" s="8">
         <f t="shared" si="22"/>
-        <v>3704.5281220657275</v>
+        <v>5.7863380281690144</v>
       </c>
       <c r="K213" s="7">
         <f t="shared" si="23"/>
@@ -27230,7 +27230,7 @@
       </c>
       <c r="N213" s="4">
         <f t="shared" si="26"/>
-        <v>112.21564715933361</v>
+        <v>3.680620817314538E-2</v>
       </c>
       <c r="O213" s="4">
         <f t="shared" si="27"/>
@@ -27246,7 +27246,7 @@
         <v>3259</v>
       </c>
       <c r="S213">
-        <v>78800000</v>
+        <v>16800</v>
       </c>
       <c r="T213" s="3">
         <v>97400</v>
@@ -27306,7 +27306,7 @@
       </c>
       <c r="J214" s="8">
         <f t="shared" si="22"/>
-        <v>2095.3566150598172</v>
+        <v>0.1511259676284307</v>
       </c>
       <c r="K214" s="7">
         <f t="shared" si="23"/>
@@ -27322,7 +27322,7 @@
       </c>
       <c r="N214" s="4">
         <f t="shared" si="26"/>
-        <v>152.69234435897437</v>
+        <v>1.095974358974359E-2</v>
       </c>
       <c r="O214" s="4">
         <f t="shared" si="27"/>
@@ -27338,7 +27338,7 @@
         <v>764</v>
       </c>
       <c r="S214">
-        <v>595500000</v>
+        <v>42600</v>
       </c>
       <c r="T214" s="3">
         <v>207</v>
@@ -27398,7 +27398,7 @@
       </c>
       <c r="J215" s="8">
         <f t="shared" si="22"/>
-        <v>32.801260401370534</v>
+        <v>6.627508565834557E-3</v>
       </c>
       <c r="K215" s="7">
         <f t="shared" si="23"/>
@@ -27414,7 +27414,7 @@
       </c>
       <c r="N215" s="4">
         <f t="shared" si="26"/>
-        <v>92.290075757575764</v>
+        <v>4.352617079889807E-3</v>
       </c>
       <c r="O215" s="4">
         <f t="shared" si="27"/>
@@ -27430,7 +27430,7 @@
         <v>456</v>
       </c>
       <c r="S215">
-        <v>13400000</v>
+        <v>113</v>
       </c>
       <c r="T215" s="3">
         <v>2076</v>
@@ -27490,7 +27490,7 @@
       </c>
       <c r="J216" s="8">
         <f t="shared" si="22"/>
-        <v>37.287500000000001</v>
+        <v>6.1640416666666669</v>
       </c>
       <c r="K216" s="7">
         <f t="shared" si="23"/>
@@ -27506,7 +27506,7 @@
       </c>
       <c r="N216" s="4">
         <f t="shared" si="26"/>
-        <v>22.339233038348084</v>
+        <v>0.30492625368731563</v>
       </c>
       <c r="O216" s="4">
         <f t="shared" si="27"/>
@@ -27522,7 +27522,7 @@
         <v>784</v>
       </c>
       <c r="S216">
-        <v>747200</v>
+        <v>237</v>
       </c>
       <c r="T216" s="3">
         <v>137600</v>
@@ -27582,7 +27582,7 @@
       </c>
       <c r="J217" s="8">
         <f t="shared" si="22"/>
-        <v>4695.7101260321597</v>
+        <v>5.2059973924380705</v>
       </c>
       <c r="K217" s="7">
         <f t="shared" si="23"/>
@@ -27598,7 +27598,7 @@
       </c>
       <c r="N217" s="4">
         <f t="shared" si="26"/>
-        <v>40.810238050255052</v>
+        <v>2.8639712828263744E-2</v>
       </c>
       <c r="O217" s="4">
         <f t="shared" si="27"/>
@@ -27614,7 +27614,7 @@
         <v>241</v>
       </c>
       <c r="S217">
-        <v>21600000</v>
+        <v>14300</v>
       </c>
       <c r="T217" s="3">
         <v>8799</v>
@@ -27674,7 +27674,7 @@
       </c>
       <c r="J218" s="8">
         <f t="shared" si="22"/>
-        <v>1.3530874825500232</v>
+        <v>8.2363890181479755E-4</v>
       </c>
       <c r="K218" s="7">
         <f t="shared" si="23"/>
@@ -27690,7 +27690,7 @@
       </c>
       <c r="N218" s="4">
         <f t="shared" si="26"/>
-        <v>51.010789473684213</v>
+        <v>2.8070175438596492E-2</v>
       </c>
       <c r="O218" s="4">
         <f t="shared" si="27"/>
@@ -27706,7 +27706,7 @@
         <v>789</v>
       </c>
       <c r="S218">
-        <v>581500</v>
+        <v>297</v>
       </c>
       <c r="T218" s="3">
         <v>34</v>
@@ -27766,7 +27766,7 @@
       </c>
       <c r="J219" s="8">
         <f t="shared" si="22"/>
-        <v>1018.772375</v>
+        <v>3.7374999999999999E-2</v>
       </c>
       <c r="K219" s="7">
         <f t="shared" si="23"/>
@@ -27782,7 +27782,7 @@
       </c>
       <c r="N219" s="4">
         <f t="shared" si="26"/>
-        <v>98.608977616454936</v>
+        <v>1.8390804597701149E-3</v>
       </c>
       <c r="O219" s="4">
         <f t="shared" si="27"/>
@@ -27798,7 +27798,7 @@
         <v>569</v>
       </c>
       <c r="S219">
-        <v>16300000</v>
+        <v>240</v>
       </c>
       <c r="T219" s="3">
         <v>294</v>
@@ -27858,7 +27858,7 @@
       </c>
       <c r="J220" s="8">
         <f t="shared" si="22"/>
-        <v>32.618045112781957</v>
+        <v>6.0701754385964909E-2</v>
       </c>
       <c r="K220" s="7">
         <f t="shared" si="23"/>
@@ -27874,7 +27874,7 @@
       </c>
       <c r="N220" s="4">
         <f t="shared" si="26"/>
-        <v>40.64153125</v>
+        <v>4.6593750000000003E-2</v>
       </c>
       <c r="O220" s="4">
         <f t="shared" si="27"/>
@@ -27890,7 +27890,7 @@
         <v>121</v>
       </c>
       <c r="S220">
-        <v>1300000</v>
+        <v>962</v>
       </c>
       <c r="T220" s="3">
         <v>931</v>
@@ -27950,7 +27950,7 @@
       </c>
       <c r="J221" s="8">
         <f t="shared" si="22"/>
-        <v>0.97676372093023256</v>
+        <v>5.1627906976744189E-5</v>
       </c>
       <c r="K221" s="7">
         <f t="shared" si="23"/>
@@ -27966,7 +27966,7 @@
       </c>
       <c r="N221" s="4">
         <f t="shared" si="26"/>
-        <v>70.117813021702844</v>
+        <v>3.2554257095158599E-3</v>
       </c>
       <c r="O221" s="4">
         <f t="shared" si="27"/>
@@ -27982,7 +27982,7 @@
         <v>697</v>
       </c>
       <c r="S221">
-        <v>4200000</v>
+        <v>138</v>
       </c>
       <c r="T221" s="3">
         <v>27</v>
@@ -28042,7 +28042,7 @@
       </c>
       <c r="J222" s="8">
         <f t="shared" si="22"/>
-        <v>7.7587961985216474</v>
+        <v>1.0478880675818374</v>
       </c>
       <c r="K222" s="7">
         <f t="shared" si="23"/>
@@ -28058,7 +28058,7 @@
       </c>
       <c r="N222" s="4">
         <f t="shared" si="26"/>
-        <v>19.076358208955224</v>
+        <v>0.10552238805970149</v>
       </c>
       <c r="O222" s="4">
         <f t="shared" si="27"/>
@@ -28074,7 +28074,7 @@
         <v>225</v>
       </c>
       <c r="S222">
-        <v>636800</v>
+        <v>1277</v>
       </c>
       <c r="T222" s="3">
         <v>95700</v>
@@ -28134,7 +28134,7 @@
       </c>
       <c r="J223" s="8">
         <f t="shared" si="22"/>
-        <v>2.320250569476082</v>
+        <v>5.4922804353328269E-4</v>
       </c>
       <c r="K223" s="7">
         <f t="shared" si="23"/>
@@ -28150,7 +28150,7 @@
       </c>
       <c r="N223" s="4">
         <f t="shared" si="26"/>
-        <v>12.984475920679886</v>
+        <v>2.6912181303116148E-3</v>
       </c>
       <c r="O223" s="4">
         <f t="shared" si="27"/>
@@ -28166,7 +28166,7 @@
         <v>294</v>
       </c>
       <c r="S223">
-        <v>916700</v>
+        <v>186</v>
       </c>
       <c r="T223" s="3">
         <v>27</v>
@@ -28226,7 +28226,7 @@
       </c>
       <c r="J224" s="8">
         <f t="shared" si="22"/>
-        <v>13.824950625411455</v>
+        <v>2.5707702435813036E-3</v>
       </c>
       <c r="K224" s="7">
         <f t="shared" si="23"/>
@@ -28242,7 +28242,7 @@
       </c>
       <c r="N224" s="4">
         <f t="shared" si="26"/>
-        <v>47.565130237825592</v>
+        <v>8.6296715741789355E-3</v>
       </c>
       <c r="O224" s="4">
         <f t="shared" si="27"/>
@@ -28258,7 +28258,7 @@
         <v>85</v>
       </c>
       <c r="S224">
-        <v>4200000</v>
+        <v>761</v>
       </c>
       <c r="T224" s="3">
         <v>19</v>
@@ -28318,7 +28318,7 @@
       </c>
       <c r="J225" s="8">
         <f t="shared" si="22"/>
-        <v>45.159187386294725</v>
+        <v>2.3246411966848596E-2</v>
       </c>
       <c r="K225" s="7">
         <f t="shared" si="23"/>
@@ -28334,7 +28334,7 @@
       </c>
       <c r="N225" s="4">
         <f t="shared" si="26"/>
-        <v>9.6899132321041215</v>
+        <v>2.8199566160520607E-3</v>
       </c>
       <c r="O225" s="4">
         <f t="shared" si="27"/>
@@ -28350,7 +28350,7 @@
         <v>344</v>
       </c>
       <c r="S225">
-        <v>446600</v>
+        <v>25</v>
       </c>
       <c r="T225" s="3">
         <v>100</v>
@@ -28410,7 +28410,7 @@
       </c>
       <c r="J226" s="8">
         <f t="shared" si="22"/>
-        <v>288.92547592385216</v>
+        <v>1.6712765957446809</v>
       </c>
       <c r="K226" s="7">
         <f t="shared" si="23"/>
@@ -28426,7 +28426,7 @@
       </c>
       <c r="N226" s="4">
         <f t="shared" si="26"/>
-        <v>17.200032</v>
+        <v>9.8832000000000003E-2</v>
       </c>
       <c r="O226" s="4">
         <f t="shared" si="27"/>
@@ -28442,7 +28442,7 @@
         <v>958</v>
       </c>
       <c r="S226">
-        <v>25800000</v>
+        <v>148200</v>
       </c>
       <c r="T226" s="3">
         <v>997</v>
@@ -28502,7 +28502,7 @@
       </c>
       <c r="J227" s="8">
         <f t="shared" si="22"/>
-        <v>88.928785233225241</v>
+        <v>0.48416063856323271</v>
       </c>
       <c r="K227" s="7">
         <f t="shared" si="23"/>
@@ -28518,7 +28518,7 @@
       </c>
       <c r="N227" s="4">
         <f t="shared" si="26"/>
-        <v>9.6343826322930806</v>
+        <v>1.2279511533242877E-2</v>
       </c>
       <c r="O227" s="4">
         <f t="shared" si="27"/>
@@ -28534,7 +28534,7 @@
         <v>194</v>
       </c>
       <c r="S227">
-        <v>709600</v>
+        <v>451</v>
       </c>
       <c r="T227" s="3">
         <v>2977</v>
@@ -28594,7 +28594,7 @@
       </c>
       <c r="J228" s="8">
         <f t="shared" si="22"/>
-        <v>1301.5675675675675</v>
+        <v>9.5090090090090094</v>
       </c>
       <c r="K228" s="7">
         <f t="shared" si="23"/>
@@ -28610,7 +28610,7 @@
       </c>
       <c r="N228" s="4">
         <f t="shared" si="26"/>
-        <v>13.780858505564387</v>
+        <v>0.10023847376788553</v>
       </c>
       <c r="O228" s="4">
         <f t="shared" si="27"/>
@@ -28626,7 +28626,7 @@
         <v>1683</v>
       </c>
       <c r="S228">
-        <v>866800</v>
+        <v>6289</v>
       </c>
       <c r="T228" s="3">
         <v>28</v>
@@ -28686,7 +28686,7 @@
       </c>
       <c r="J229" s="8">
         <f t="shared" si="22"/>
-        <v>71345.819439252329</v>
+        <v>12.912897196261682</v>
       </c>
       <c r="K229" s="7">
         <f t="shared" si="23"/>
@@ -28702,7 +28702,7 @@
       </c>
       <c r="N229" s="4">
         <f t="shared" si="26"/>
-        <v>41.945057307692309</v>
+        <v>7.5792857142857146E-3</v>
       </c>
       <c r="O229" s="4">
         <f t="shared" si="27"/>
@@ -28718,7 +28718,7 @@
         <v>380</v>
       </c>
       <c r="S229">
-        <v>763400000</v>
+        <v>137900</v>
       </c>
       <c r="T229" s="3">
         <v>225</v>
@@ -28778,7 +28778,7 @@
       </c>
       <c r="J230" s="8">
         <f t="shared" si="22"/>
-        <v>2110.7065326633165</v>
+        <v>0.64623115577889445</v>
       </c>
       <c r="K230" s="7">
         <f t="shared" si="23"/>
@@ -28794,7 +28794,7 @@
       </c>
       <c r="N230" s="4">
         <f t="shared" si="26"/>
-        <v>223.33510581729234</v>
+        <v>5.423800914601723E-2</v>
       </c>
       <c r="O230" s="4">
         <f t="shared" si="27"/>
@@ -28810,7 +28810,7 @@
         <v>461</v>
       </c>
       <c r="S230">
-        <v>2100000</v>
+        <v>490</v>
       </c>
       <c r="T230" s="3">
         <v>133</v>
@@ -28870,7 +28870,7 @@
       </c>
       <c r="J231" s="8">
         <f t="shared" si="22"/>
-        <v>409.76756944444446</v>
+        <v>6.159722222222222E-2</v>
       </c>
       <c r="K231" s="7">
         <f t="shared" si="23"/>
@@ -28886,7 +28886,7 @@
       </c>
       <c r="N231" s="4">
         <f t="shared" si="26"/>
-        <v>72.930951792336216</v>
+        <v>4.3016069221260816E-3</v>
       </c>
       <c r="O231" s="4">
         <f t="shared" si="27"/>
@@ -28902,7 +28902,7 @@
         <v>60</v>
       </c>
       <c r="S231">
-        <v>5900000</v>
+        <v>234</v>
       </c>
       <c r="T231" s="3">
         <v>539</v>
@@ -28962,7 +28962,7 @@
       </c>
       <c r="J232" s="8">
         <f t="shared" si="22"/>
-        <v>0.25620146341463412</v>
+        <v>1.15E-4</v>
       </c>
       <c r="K232" s="7">
         <f t="shared" si="23"/>
@@ -28978,7 +28978,7 @@
       </c>
       <c r="N232" s="4">
         <f t="shared" si="26"/>
-        <v>75.543273381294966</v>
+        <v>6.9784172661870505E-3</v>
       </c>
       <c r="O232" s="4">
         <f t="shared" si="27"/>
@@ -28994,7 +28994,7 @@
         <v>1237</v>
       </c>
       <c r="S232">
-        <v>2100000</v>
+        <v>91</v>
       </c>
       <c r="T232" s="3">
         <v>749</v>
@@ -29054,7 +29054,7 @@
       </c>
       <c r="J233" s="8">
         <f t="shared" si="22"/>
-        <v>1.091350909090909</v>
+        <v>1.3581818181818183E-3</v>
       </c>
       <c r="K233" s="7">
         <f t="shared" si="23"/>
@@ -29070,7 +29070,7 @@
       </c>
       <c r="N233" s="4">
         <f t="shared" si="26"/>
-        <v>19.233958333333334</v>
+        <v>1.9342948717948717E-2</v>
       </c>
       <c r="O233" s="4">
         <f t="shared" si="27"/>
@@ -29086,7 +29086,7 @@
         <v>76</v>
       </c>
       <c r="S233">
-        <v>1200000</v>
+        <v>1008</v>
       </c>
       <c r="T233" s="3">
         <v>287</v>
@@ -29146,7 +29146,7 @@
       </c>
       <c r="J234" s="8">
         <f t="shared" si="22"/>
-        <v>40.222246879334257</v>
+        <v>1.6782246879334258E-3</v>
       </c>
       <c r="K234" s="7">
         <f t="shared" si="23"/>
@@ -29162,7 +29162,7 @@
       </c>
       <c r="N234" s="4">
         <f t="shared" si="26"/>
-        <v>28.713089108910893</v>
+        <v>1.1782178217821782E-3</v>
       </c>
       <c r="O234" s="4">
         <f t="shared" si="27"/>
@@ -29178,7 +29178,7 @@
         <v>1251</v>
       </c>
       <c r="S234">
-        <v>2900000</v>
+        <v>97</v>
       </c>
       <c r="T234" s="3">
         <v>2</v>
@@ -29238,7 +29238,7 @@
       </c>
       <c r="J235" s="8">
         <f t="shared" si="22"/>
-        <v>109.28182634730538</v>
+        <v>8.2335329341317372E-3</v>
       </c>
       <c r="K235" s="7">
         <f t="shared" si="23"/>
@@ -29254,7 +29254,7 @@
       </c>
       <c r="N235" s="4">
         <f t="shared" si="26"/>
-        <v>40.896498599439774</v>
+        <v>3.0756302521008404E-3</v>
       </c>
       <c r="O235" s="4">
         <f t="shared" si="27"/>
@@ -29270,7 +29270,7 @@
         <v>38</v>
       </c>
       <c r="S235">
-        <v>7300000</v>
+        <v>524</v>
       </c>
       <c r="T235" s="3">
         <v>1</v>
@@ -29330,7 +29330,7 @@
       </c>
       <c r="J236" s="8">
         <f t="shared" si="22"/>
-        <v>5.3548738709677419</v>
+        <v>3.4419354838709676E-4</v>
       </c>
       <c r="K236" s="7">
         <f t="shared" si="23"/>
@@ -29346,7 +29346,7 @@
       </c>
       <c r="N236" s="4">
         <f t="shared" si="26"/>
-        <v>48.8380817887614</v>
+        <v>3.0067666960870844E-3</v>
       </c>
       <c r="O236" s="4">
         <f t="shared" si="27"/>
@@ -29362,7 +29362,7 @@
         <v>764</v>
       </c>
       <c r="S236">
-        <v>16600000</v>
+        <v>958</v>
       </c>
       <c r="T236" s="3">
         <v>45</v>
@@ -29422,7 +29422,7 @@
       </c>
       <c r="J237" s="8">
         <f t="shared" si="22"/>
-        <v>23.479355389541087</v>
+        <v>7.6883671291355388E-3</v>
       </c>
       <c r="K237" s="7">
         <f t="shared" si="23"/>
@@ -29438,7 +29438,7 @@
       </c>
       <c r="N237" s="4">
         <f t="shared" si="26"/>
-        <v>37.645537303216976</v>
+        <v>1.21492128678987E-2</v>
       </c>
       <c r="O237" s="4">
         <f t="shared" si="27"/>
@@ -29454,7 +29454,7 @@
         <v>43</v>
       </c>
       <c r="S237">
-        <v>11000000</v>
+        <v>3524</v>
       </c>
       <c r="T237" s="3">
         <v>52</v>
@@ -29514,7 +29514,7 @@
       </c>
       <c r="J238" s="8">
         <f t="shared" si="22"/>
-        <v>12.961525423728814</v>
+        <v>0.16714285714285715</v>
       </c>
       <c r="K238" s="7">
         <f t="shared" si="23"/>
@@ -29530,7 +29530,7 @@
       </c>
       <c r="N238" s="4">
         <f t="shared" si="26"/>
-        <v>26.895678391959798</v>
+        <v>0.34251256281407033</v>
       </c>
       <c r="O238" s="4">
         <f t="shared" si="27"/>
@@ -29546,7 +29546,7 @@
         <v>46</v>
       </c>
       <c r="S238">
-        <v>535200</v>
+        <v>6792</v>
       </c>
       <c r="T238" s="3">
         <v>87</v>
@@ -29606,7 +29606,7 @@
       </c>
       <c r="J239" s="8">
         <f t="shared" si="22"/>
-        <v>115.31409901599017</v>
+        <v>8.0873308733087328E-3</v>
       </c>
       <c r="K239" s="7">
         <f t="shared" si="23"/>
@@ -29622,7 +29622,7 @@
       </c>
       <c r="N239" s="4">
         <f t="shared" si="26"/>
-        <v>67.228442093940487</v>
+        <v>4.4998207242739332E-3</v>
       </c>
       <c r="O239" s="4">
         <f t="shared" si="27"/>
@@ -29638,7 +29638,7 @@
         <v>49</v>
       </c>
       <c r="S239">
-        <v>37500000</v>
+        <v>2485</v>
       </c>
       <c r="T239" s="3">
         <v>120</v>
@@ -29698,7 +29698,7 @@
       </c>
       <c r="J240" s="8">
         <f t="shared" si="22"/>
-        <v>0.22198409090909091</v>
+        <v>9.1711363636363633E-2</v>
       </c>
       <c r="K240" s="7">
         <f t="shared" si="23"/>
@@ -29714,7 +29714,7 @@
       </c>
       <c r="N240" s="4">
         <f t="shared" si="26"/>
-        <v>116.29078351988569</v>
+        <v>48.036437246963565</v>
       </c>
       <c r="O240" s="4">
         <f t="shared" si="27"/>
@@ -29730,7 +29730,7 @@
         <v>843</v>
       </c>
       <c r="S240">
-        <v>488300</v>
+        <v>201700</v>
       </c>
       <c r="T240" s="3">
         <v>60</v>
@@ -29790,7 +29790,7 @@
       </c>
       <c r="J241" s="8">
         <f t="shared" si="22"/>
-        <v>419.61011632737848</v>
+        <v>6.6285832987120902E-2</v>
       </c>
       <c r="K241" s="7">
         <f t="shared" si="23"/>
@@ -29806,7 +29806,7 @@
       </c>
       <c r="N241" s="4">
         <f t="shared" si="26"/>
-        <v>84.166687499999995</v>
+        <v>1.31875E-2</v>
       </c>
       <c r="O241" s="4">
         <f t="shared" si="27"/>
@@ -29822,7 +29822,7 @@
         <v>41</v>
       </c>
       <c r="S241">
-        <v>101000000</v>
+        <v>15800</v>
       </c>
       <c r="T241" s="3">
         <v>130</v>
@@ -29882,7 +29882,7 @@
       </c>
       <c r="J242" s="8">
         <f t="shared" si="22"/>
-        <v>2.5833400000000002</v>
+        <v>1.5608333333333333E-3</v>
       </c>
       <c r="K242" s="7">
         <f t="shared" si="23"/>
@@ -29898,7 +29898,7 @@
       </c>
       <c r="N242" s="4">
         <f t="shared" si="26"/>
-        <v>45.321739766081869</v>
+        <v>2.736842105263158E-2</v>
       </c>
       <c r="O242" s="4">
         <f t="shared" si="27"/>
@@ -29914,7 +29914,7 @@
         <v>28</v>
       </c>
       <c r="S242">
-        <v>6200000</v>
+        <v>3730</v>
       </c>
       <c r="T242" s="3">
         <v>2</v>
@@ -29974,7 +29974,7 @@
       </c>
       <c r="J243" s="8">
         <f t="shared" si="22"/>
-        <v>2.530043956043956</v>
+        <v>6.9230769230769226E-4</v>
       </c>
       <c r="K243" s="7">
         <f t="shared" si="23"/>
@@ -29990,7 +29990,7 @@
       </c>
       <c r="N243" s="4">
         <f t="shared" si="26"/>
-        <v>123.23661670235546</v>
+        <v>1.873661670235546E-2</v>
       </c>
       <c r="O243" s="4">
         <f t="shared" si="27"/>
@@ -30006,7 +30006,7 @@
         <v>120</v>
       </c>
       <c r="S243">
-        <v>230200</v>
+        <v>29</v>
       </c>
       <c r="T243" s="3">
         <v>28</v>
@@ -30066,7 +30066,7 @@
       </c>
       <c r="J244" s="8">
         <f t="shared" si="22"/>
-        <v>0.10403505617977528</v>
+        <v>1.2225842696629214E-3</v>
       </c>
       <c r="K244" s="7">
         <f t="shared" si="23"/>
@@ -30082,7 +30082,7 @@
       </c>
       <c r="N244" s="4">
         <f t="shared" si="26"/>
-        <v>24.374015957446808</v>
+        <v>3.8085106382978726E-2</v>
       </c>
       <c r="O244" s="4">
         <f t="shared" si="27"/>
@@ -30098,7 +30098,7 @@
         <v>137</v>
       </c>
       <c r="S244">
-        <v>915100</v>
+        <v>69</v>
       </c>
       <c r="T244" s="3">
         <v>9449</v>
@@ -30158,7 +30158,7 @@
       </c>
       <c r="J245" s="8">
         <f t="shared" si="22"/>
-        <v>0.27835175257731959</v>
+        <v>3.1752577319587627E-5</v>
       </c>
       <c r="K245" s="7">
         <f t="shared" si="23"/>
@@ -30174,7 +30174,7 @@
       </c>
       <c r="N245" s="4">
         <f t="shared" si="26"/>
-        <v>30.235240761478163</v>
+        <v>3.3930571108622622E-3</v>
       </c>
       <c r="O245" s="4">
         <f t="shared" si="27"/>
@@ -30190,7 +30190,7 @@
         <v>967</v>
       </c>
       <c r="S245">
-        <v>2700000</v>
+        <v>296</v>
       </c>
       <c r="T245" s="3">
         <v>5</v>
@@ -30250,7 +30250,7 @@
       </c>
       <c r="J246" s="8">
         <f t="shared" si="22"/>
-        <v>54.682783761391882</v>
+        <v>2.9660314830157416E-3</v>
       </c>
       <c r="K246" s="7">
         <f t="shared" si="23"/>
@@ -30266,7 +30266,7 @@
       </c>
       <c r="N246" s="4">
         <f t="shared" si="26"/>
-        <v>72.527824175824179</v>
+        <v>1.956043956043956E-3</v>
       </c>
       <c r="O246" s="4">
         <f t="shared" si="27"/>
@@ -30282,7 +30282,7 @@
         <v>4</v>
       </c>
       <c r="S246">
-        <v>6600000</v>
+        <v>146</v>
       </c>
       <c r="T246" s="3">
         <v>180</v>
@@ -30342,7 +30342,7 @@
       </c>
       <c r="J247" s="8">
         <f t="shared" si="22"/>
-        <v>3.8647496639784946</v>
+        <v>8.4845430107526878E-4</v>
       </c>
       <c r="K247" s="7">
         <f t="shared" si="23"/>
@@ -30358,7 +30358,7 @@
       </c>
       <c r="N247" s="4">
         <f t="shared" si="26"/>
-        <v>19.328235294117647</v>
+        <v>2.2352941176470588E-3</v>
       </c>
       <c r="O247" s="4">
         <f t="shared" si="27"/>
@@ -30374,7 +30374,7 @@
         <v>28</v>
       </c>
       <c r="S247">
-        <v>2300000</v>
+        <v>206</v>
       </c>
       <c r="T247" s="3">
         <v>239</v>
@@ -30434,7 +30434,7 @@
       </c>
       <c r="J248" s="8">
         <f t="shared" si="22"/>
-        <v>333.45800000000003</v>
+        <v>0.13525925925925925</v>
       </c>
       <c r="K248" s="7">
         <f t="shared" si="23"/>
@@ -30450,7 +30450,7 @@
       </c>
       <c r="N248" s="4">
         <f t="shared" si="26"/>
-        <v>43.775107003891051</v>
+        <v>2.1789883268482492E-3</v>
       </c>
       <c r="O248" s="4">
         <f t="shared" si="27"/>
@@ -30466,7 +30466,7 @@
         <v>44</v>
       </c>
       <c r="S248">
-        <v>4500000</v>
+        <v>143</v>
       </c>
       <c r="T248" s="3">
         <v>1602</v>
@@ -30526,7 +30526,7 @@
       </c>
       <c r="J249" s="8">
         <f t="shared" si="22"/>
-        <v>863.13425122749595</v>
+        <v>7.6149754500818331E-2</v>
       </c>
       <c r="K249" s="7">
         <f t="shared" si="23"/>
@@ -30542,7 +30542,7 @@
       </c>
       <c r="N249" s="4">
         <f t="shared" si="26"/>
-        <v>175.79167083333334</v>
+        <v>1.5504166666666666E-2</v>
       </c>
       <c r="O249" s="4">
         <f t="shared" si="27"/>
@@ -30558,7 +30558,7 @@
         <v>347</v>
       </c>
       <c r="S249">
-        <v>421900000</v>
+        <v>37200</v>
       </c>
       <c r="T249" s="3">
         <v>12</v>
@@ -30618,7 +30618,7 @@
       </c>
       <c r="J250" s="8">
         <f t="shared" si="22"/>
-        <v>954.41057797164672</v>
+        <v>0.25954198473282442</v>
       </c>
       <c r="K250" s="7">
         <f t="shared" si="23"/>
@@ -30634,7 +30634,7 @@
       </c>
       <c r="N250" s="4">
         <f t="shared" si="26"/>
-        <v>69.036370808678498</v>
+        <v>6.2721893491124257E-3</v>
       </c>
       <c r="O250" s="4">
         <f t="shared" si="27"/>
@@ -30650,7 +30650,7 @@
         <v>13</v>
       </c>
       <c r="S250">
-        <v>3500000</v>
+        <v>174</v>
       </c>
       <c r="T250" s="3">
         <v>634</v>
@@ -30710,7 +30710,7 @@
       </c>
       <c r="J251" s="8">
         <f t="shared" si="22"/>
-        <v>9142.988571428572</v>
+        <v>3.8857142857142857</v>
       </c>
       <c r="K251" s="7">
         <f t="shared" si="23"/>
@@ -30726,7 +30726,7 @@
       </c>
       <c r="N251" s="4">
         <f t="shared" si="26"/>
-        <v>84.656560846560851</v>
+        <v>3.5238095238095235E-2</v>
       </c>
       <c r="O251" s="4">
         <f t="shared" si="27"/>
@@ -30742,7 +30742,7 @@
         <v>6</v>
       </c>
       <c r="S251">
-        <v>1600000</v>
+        <v>657</v>
       </c>
       <c r="T251" s="3">
         <v>14</v>
@@ -30802,7 +30802,7 @@
       </c>
       <c r="J252" s="8">
         <f t="shared" si="22"/>
-        <v>1.9356177419354839</v>
+        <v>3.6290322580645164E-4</v>
       </c>
       <c r="K252" s="7">
         <f t="shared" si="23"/>
@@ -30818,7 +30818,7 @@
       </c>
       <c r="N252" s="4">
         <f t="shared" si="26"/>
-        <v>333.33844444444446</v>
+        <v>4.4555555555555557E-2</v>
       </c>
       <c r="O252" s="4">
         <f t="shared" si="27"/>
@@ -30834,7 +30834,7 @@
         <v>2992</v>
       </c>
       <c r="S252">
-        <v>6000000</v>
+        <v>710</v>
       </c>
       <c r="T252" s="3">
         <v>323</v>
@@ -30894,7 +30894,7 @@
       </c>
       <c r="J253" s="8">
         <f t="shared" si="22"/>
-        <v>8.7402621995630003</v>
+        <v>3.8310269482884195E-3</v>
       </c>
       <c r="K253" s="7">
         <f t="shared" si="23"/>
@@ -30910,7 +30910,7 @@
       </c>
       <c r="N253" s="4">
         <f t="shared" si="26"/>
-        <v>61.225459183673472</v>
+        <v>2.5867346938775512E-2</v>
       </c>
       <c r="O253" s="4">
         <f t="shared" si="27"/>
@@ -30926,7 +30926,7 @@
         <v>1255</v>
       </c>
       <c r="S253">
-        <v>1200000</v>
+        <v>488</v>
       </c>
       <c r="T253" s="3">
         <v>19</v>
@@ -30986,7 +30986,7 @@
       </c>
       <c r="J254" s="8">
         <f t="shared" si="22"/>
-        <v>90.330907548770142</v>
+        <v>1.0093299406276506E-3</v>
       </c>
       <c r="K254" s="7">
         <f t="shared" si="23"/>
@@ -31002,7 +31002,7 @@
       </c>
       <c r="N254" s="4">
         <f t="shared" si="26"/>
-        <v>173.73578303425774</v>
+        <v>1.7699836867862968E-3</v>
       </c>
       <c r="O254" s="4">
         <f t="shared" si="27"/>
@@ -31018,7 +31018,7 @@
         <v>1463</v>
       </c>
       <c r="S254">
-        <v>21300000</v>
+        <v>210</v>
       </c>
       <c r="T254" s="3">
         <v>21</v>
@@ -31078,7 +31078,7 @@
       </c>
       <c r="J255" s="8">
         <f t="shared" si="22"/>
-        <v>0.25586285714285717</v>
+        <v>7.7952380952380949E-4</v>
       </c>
       <c r="K255" s="7">
         <f t="shared" si="23"/>
@@ -31094,7 +31094,7 @@
       </c>
       <c r="N255" s="4">
         <f t="shared" si="26"/>
-        <v>30.523636363636363</v>
+        <v>8.755681818181818E-2</v>
       </c>
       <c r="O255" s="4">
         <f t="shared" si="27"/>
@@ -31110,7 +31110,7 @@
         <v>573</v>
       </c>
       <c r="S255">
-        <v>537200</v>
+        <v>1525</v>
       </c>
       <c r="T255" s="3">
         <v>96</v>
@@ -31170,7 +31170,7 @@
       </c>
       <c r="J256" s="8">
         <f t="shared" si="22"/>
-        <v>12.303513328776488</v>
+        <v>8.3390293916609708E-4</v>
       </c>
       <c r="K256" s="7">
         <f t="shared" si="23"/>
@@ -31186,7 +31186,7 @@
       </c>
       <c r="N256" s="4">
         <f t="shared" si="26"/>
-        <v>58.252524271844663</v>
+        <v>3.9158576051779937E-3</v>
       </c>
       <c r="O256" s="4">
         <f t="shared" si="27"/>
@@ -31202,7 +31202,7 @@
         <v>579</v>
       </c>
       <c r="S256">
-        <v>1800000</v>
+        <v>118</v>
       </c>
       <c r="T256" s="3">
         <v>1</v>
@@ -31262,7 +31262,7 @@
       </c>
       <c r="J257" s="8">
         <f t="shared" si="22"/>
-        <v>51.336495545184555</v>
+        <v>2.1637675010606703E-4</v>
       </c>
       <c r="K257" s="7">
         <f t="shared" si="23"/>
@@ -31278,7 +31278,7 @@
       </c>
       <c r="N257" s="4">
         <f t="shared" si="26"/>
-        <v>95.803689627870156</v>
+        <v>3.5629453681710216E-4</v>
       </c>
       <c r="O257" s="4">
         <f t="shared" si="27"/>
@@ -31294,7 +31294,7 @@
         <v>785</v>
       </c>
       <c r="S257">
-        <v>12100000</v>
+        <v>39</v>
       </c>
       <c r="T257" s="3">
         <v>6</v>
@@ -31354,7 +31354,7 @@
       </c>
       <c r="J258" s="8">
         <f t="shared" si="22"/>
-        <v>199.46886056971513</v>
+        <v>0.54982008995502252</v>
       </c>
       <c r="K258" s="7">
         <f t="shared" si="23"/>
@@ -31370,7 +31370,7 @@
       </c>
       <c r="N258" s="4">
         <f t="shared" si="26"/>
-        <v>63.003936522974897</v>
+        <v>0.15268119374703931</v>
       </c>
       <c r="O258" s="4">
         <f t="shared" si="27"/>
@@ -31386,7 +31386,7 @@
         <v>4519</v>
       </c>
       <c r="S258">
-        <v>13300000</v>
+        <v>32100</v>
       </c>
       <c r="T258" s="3">
         <v>4442</v>
@@ -31446,7 +31446,7 @@
       </c>
       <c r="J259" s="8">
         <f t="shared" ref="J259:J267" si="29">IFERROR((S259+T259+U259)/V259,"")</f>
-        <v>17.103682916837361</v>
+        <v>1.4973371569029087E-3</v>
       </c>
       <c r="K259" s="7">
         <f t="shared" ref="K259:K267" si="30">IFERROR(U259/V259,"")</f>
@@ -31462,7 +31462,7 @@
       </c>
       <c r="N259" s="4">
         <f t="shared" ref="N259:N267" si="33">IFERROR((S259+U259)/Q259,"")</f>
-        <v>36.606782113108288</v>
+        <v>3.1565103024989039E-3</v>
       </c>
       <c r="O259" s="4">
         <f t="shared" ref="O259:O267" si="34">IFERROR(100/(L259+1),"")</f>
@@ -31478,7 +31478,7 @@
         <v>4593</v>
       </c>
       <c r="S259">
-        <v>16700000</v>
+        <v>1426</v>
       </c>
       <c r="T259" s="3">
         <v>22</v>
@@ -31538,7 +31538,7 @@
       </c>
       <c r="J260" s="8">
         <f t="shared" si="29"/>
-        <v>206.4298646362098</v>
+        <v>3.7055837563451779E-2</v>
       </c>
       <c r="K260" s="7">
         <f t="shared" si="30"/>
@@ -31554,7 +31554,7 @@
       </c>
       <c r="N260" s="4">
         <f t="shared" si="33"/>
-        <v>66.593913755458516</v>
+        <v>1.195414847161572E-2</v>
       </c>
       <c r="O260" s="4">
         <f t="shared" si="34"/>
@@ -31570,7 +31570,7 @@
         <v>1667</v>
       </c>
       <c r="S260">
-        <v>12200000</v>
+        <v>2185</v>
       </c>
       <c r="T260" s="3">
         <v>0</v>
@@ -31630,7 +31630,7 @@
       </c>
       <c r="J261" s="8">
         <f t="shared" si="29"/>
-        <v>999.14719588622847</v>
+        <v>3.5807488349670575</v>
       </c>
       <c r="K261" s="7">
         <f t="shared" si="30"/>
@@ -31646,7 +31646,7 @@
       </c>
       <c r="N261" s="4">
         <f t="shared" si="33"/>
-        <v>51.33851821192053</v>
+        <v>5.2011589403973511E-2</v>
       </c>
       <c r="O261" s="4">
         <f t="shared" si="34"/>
@@ -31662,7 +31662,7 @@
         <v>804</v>
       </c>
       <c r="S261">
-        <v>6200000</v>
+        <v>4590</v>
       </c>
       <c r="T261" s="3">
         <v>16000</v>
@@ -31722,7 +31722,7 @@
       </c>
       <c r="J262" s="8">
         <f t="shared" si="29"/>
-        <v>149.67673258813414</v>
+        <v>0.18748065348237317</v>
       </c>
       <c r="K262" s="7">
         <f t="shared" si="30"/>
@@ -31738,7 +31738,7 @@
       </c>
       <c r="N262" s="4">
         <f t="shared" si="33"/>
-        <v>65.537819209039554</v>
+        <v>5.5333333333333332E-2</v>
       </c>
       <c r="O262" s="4">
         <f t="shared" si="34"/>
@@ -31754,7 +31754,7 @@
         <v>859</v>
       </c>
       <c r="S262">
-        <v>17400000</v>
+        <v>14400</v>
       </c>
       <c r="T262" s="3">
         <v>7113</v>
@@ -31814,7 +31814,7 @@
       </c>
       <c r="J263" s="8">
         <f t="shared" si="29"/>
-        <v>96.296962962962965</v>
+        <v>4.691358024691358E-3</v>
       </c>
       <c r="K263" s="7">
         <f t="shared" si="30"/>
@@ -31830,7 +31830,7 @@
       </c>
       <c r="N263" s="4">
         <f t="shared" si="33"/>
-        <v>93.078973747016704</v>
+        <v>4.1050119331742241E-3</v>
       </c>
       <c r="O263" s="4">
         <f t="shared" si="34"/>
@@ -31846,7 +31846,7 @@
         <v>995</v>
       </c>
       <c r="S263">
-        <v>3900000</v>
+        <v>163</v>
       </c>
       <c r="T263" s="3">
         <v>18</v>
@@ -31906,7 +31906,7 @@
       </c>
       <c r="J264" s="8">
         <f t="shared" si="29"/>
-        <v>17608.5</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="K264" s="7">
         <f t="shared" si="30"/>
@@ -31922,7 +31922,7 @@
       </c>
       <c r="N264" s="4">
         <f t="shared" si="33"/>
-        <v>23.286764705882351</v>
+        <v>6.3970588235294119E-3</v>
       </c>
       <c r="O264" s="4">
         <f t="shared" si="34"/>
@@ -31938,7 +31938,7 @@
         <v>20</v>
       </c>
       <c r="S264">
-        <v>316700</v>
+        <v>87</v>
       </c>
       <c r="T264" s="3">
         <v>253</v>
@@ -31998,7 +31998,7 @@
       </c>
       <c r="J265" s="8">
         <f t="shared" si="29"/>
-        <v>7.822897509578544</v>
+        <v>6.4335887611749682E-4</v>
       </c>
       <c r="K265" s="7">
         <f t="shared" si="30"/>
@@ -32014,7 +32014,7 @@
       </c>
       <c r="N265" s="4">
         <f t="shared" si="33"/>
-        <v>63.638987012987016</v>
+        <v>4.4415584415584417E-3</v>
       </c>
       <c r="O265" s="4">
         <f t="shared" si="34"/>
@@ -32030,7 +32030,7 @@
         <v>128</v>
       </c>
       <c r="S265">
-        <v>4900000</v>
+        <v>140</v>
       </c>
       <c r="T265" s="11">
         <v>61</v>
@@ -32090,7 +32090,7 @@
       </c>
       <c r="J266" s="8">
         <f t="shared" si="29"/>
-        <v>40.973111395646605</v>
+        <v>1.6952624839948784E-2</v>
       </c>
       <c r="K266" s="7">
         <f t="shared" si="30"/>
@@ -32106,7 +32106,7 @@
       </c>
       <c r="N266" s="4">
         <f t="shared" si="33"/>
-        <v>19.173157579388857</v>
+        <v>7.9328939484721393E-3</v>
       </c>
       <c r="O266" s="4">
         <f t="shared" si="34"/>
@@ -32122,7 +32122,7 @@
         <v>49</v>
       </c>
       <c r="S266">
-        <v>3200000</v>
+        <v>1324</v>
       </c>
       <c r="T266" s="3">
         <v>0</v>
@@ -32182,7 +32182,7 @@
       </c>
       <c r="J267" s="8">
         <f t="shared" si="29"/>
-        <v>29.100646766169156</v>
+        <v>2.6368159203980098E-3</v>
       </c>
       <c r="K267" s="7">
         <f t="shared" si="30"/>
@@ -32198,7 +32198,7 @@
       </c>
       <c r="N267" s="4">
         <f t="shared" si="33"/>
-        <v>47.169838709677421</v>
+        <v>2.9032258064516131E-3</v>
       </c>
       <c r="O267" s="4">
         <f t="shared" si="34"/>
@@ -32214,7 +32214,7 @@
         <v>254</v>
       </c>
       <c r="S267">
-        <v>584900</v>
+        <v>30</v>
       </c>
       <c r="T267" s="3">
         <v>17</v>
